--- a/EnemyModDrop.xlsx
+++ b/EnemyModDrop.xlsx
@@ -557,6 +557,9 @@
     <t>Rathuum Broadcaster</t>
   </si>
   <si>
+    <t>Kuva Trooper</t>
+  </si>
+  <si>
     <t>Corrupted Heavy Gunner</t>
   </si>
   <si>
@@ -572,9 +575,6 @@
     <t>Flailing Branch</t>
   </si>
   <si>
-    <t>Kuva Trooper</t>
-  </si>
-  <si>
     <t>Eidolon Gantulyst (Special)</t>
   </si>
   <si>
@@ -902,24 +902,24 @@
     <t>Gleaming Talon</t>
   </si>
   <si>
+    <t>Ogma Elite</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>Cutting Edge</t>
+  </si>
+  <si>
+    <t>Poisonous Sting</t>
+  </si>
+  <si>
+    <t>Dual Rounds</t>
+  </si>
+  <si>
     <t>Roller</t>
   </si>
   <si>
-    <t>Ogma Elite</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>Cutting Edge</t>
-  </si>
-  <si>
-    <t>Poisonous Sting</t>
-  </si>
-  <si>
-    <t>Dual Rounds</t>
-  </si>
-  <si>
     <t>Arid Butcher</t>
   </si>
   <si>
@@ -1307,6 +1307,9 @@
     <t>Terra Moa</t>
   </si>
   <si>
+    <t>Arcane Boiler</t>
+  </si>
+  <si>
     <t>Orphid Husks</t>
   </si>
   <si>
@@ -1319,27 +1322,24 @@
     <t>Sundering Strike</t>
   </si>
   <si>
-    <t>Arcane Boiler</t>
-  </si>
-  <si>
     <t>Gyre Hyena</t>
   </si>
   <si>
+    <t>Gox</t>
+  </si>
+  <si>
+    <t>0.7744</t>
+  </si>
+  <si>
+    <t>Superior Defenses</t>
+  </si>
+  <si>
     <t>Hyena Pb</t>
   </si>
   <si>
     <t>Volatile Runner</t>
   </si>
   <si>
-    <t>Gox</t>
-  </si>
-  <si>
-    <t>0.7744</t>
-  </si>
-  <si>
-    <t>Superior Defenses</t>
-  </si>
-  <si>
     <t>Scavenger Drone</t>
   </si>
   <si>
@@ -1466,36 +1466,36 @@
     <t>Adhesive Blast</t>
   </si>
   <si>
+    <t>Plains Commander</t>
+  </si>
+  <si>
+    <t>Vigilante Armaments</t>
+  </si>
+  <si>
+    <t>Vigilante Vigor</t>
+  </si>
+  <si>
+    <t>Vigilante Fervor</t>
+  </si>
+  <si>
+    <t>Vigilante Pursuit</t>
+  </si>
+  <si>
+    <t>Vigilante Offense</t>
+  </si>
+  <si>
+    <t>Vigilante Supplies</t>
+  </si>
+  <si>
+    <t>Carving Mantis</t>
+  </si>
+  <si>
+    <t>Spring-Loaded Blade</t>
+  </si>
+  <si>
     <t>Infested Corpus</t>
   </si>
   <si>
-    <t>Plains Commander</t>
-  </si>
-  <si>
-    <t>Vigilante Armaments</t>
-  </si>
-  <si>
-    <t>Vigilante Vigor</t>
-  </si>
-  <si>
-    <t>Vigilante Fervor</t>
-  </si>
-  <si>
-    <t>Vigilante Pursuit</t>
-  </si>
-  <si>
-    <t>Vigilante Offense</t>
-  </si>
-  <si>
-    <t>Vigilante Supplies</t>
-  </si>
-  <si>
-    <t>Carving Mantis</t>
-  </si>
-  <si>
-    <t>Spring-Loaded Blade</t>
-  </si>
-  <si>
     <t>General Sargas Ruk</t>
   </si>
   <si>
@@ -1574,48 +1574,48 @@
     <t>Automatic Trigger</t>
   </si>
   <si>
+    <t>Decaying Conculyst</t>
+  </si>
+  <si>
+    <t>Reflex Draw</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.1528</t>
+  </si>
+  <si>
+    <t>Twitch</t>
+  </si>
+  <si>
+    <t>Soft Hands</t>
+  </si>
+  <si>
+    <t>Spry Sights</t>
+  </si>
+  <si>
+    <t>Agile Aim</t>
+  </si>
+  <si>
+    <t>Snap Shot</t>
+  </si>
+  <si>
+    <t>Vengeful Revenant</t>
+  </si>
+  <si>
+    <t>Double-Barrel Drift</t>
+  </si>
+  <si>
+    <t>Spring-Loaded Broadhead</t>
+  </si>
+  <si>
     <t>Shik Tal</t>
   </si>
   <si>
     <t>Natural Talent</t>
   </si>
   <si>
-    <t>Decaying Conculyst</t>
-  </si>
-  <si>
-    <t>Reflex Draw</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>0.1528</t>
-  </si>
-  <si>
-    <t>Twitch</t>
-  </si>
-  <si>
-    <t>Soft Hands</t>
-  </si>
-  <si>
-    <t>Spry Sights</t>
-  </si>
-  <si>
-    <t>Agile Aim</t>
-  </si>
-  <si>
-    <t>Snap Shot</t>
-  </si>
-  <si>
-    <t>Vengeful Revenant</t>
-  </si>
-  <si>
-    <t>Double-Barrel Drift</t>
-  </si>
-  <si>
-    <t>Spring-Loaded Broadhead</t>
-  </si>
-  <si>
     <t>Kuva Hellion</t>
   </si>
   <si>
@@ -1706,6 +1706,9 @@
     <t>Terra Manker</t>
   </si>
   <si>
+    <t>Tusk Command Dargyn</t>
+  </si>
+  <si>
     <t>Nox</t>
   </si>
   <si>
@@ -1718,9 +1721,6 @@
     <t>Toxin Resistance</t>
   </si>
   <si>
-    <t>Tusk Command Dargyn</t>
-  </si>
-  <si>
     <t>Councilor Vay Hek</t>
   </si>
   <si>
@@ -1835,27 +1835,27 @@
     <t>Quanta Ranger</t>
   </si>
   <si>
+    <t>Tusk Mortar Bombard</t>
+  </si>
+  <si>
     <t>Arbitration Shield Drone</t>
   </si>
   <si>
-    <t>Tusk Mortar Bombard</t>
+    <t>Nemes</t>
   </si>
   <si>
     <t>Moa</t>
   </si>
   <si>
-    <t>Nemes</t>
-  </si>
-  <si>
     <t>Tusk Flameblade</t>
   </si>
   <si>
+    <t>Drekar Manic Bombard</t>
+  </si>
+  <si>
     <t>Executioner Harkonar</t>
   </si>
   <si>
-    <t>Drekar Manic Bombard</t>
-  </si>
-  <si>
     <t>Orb Vallis - Enrichment Labs Enemies</t>
   </si>
   <si>
@@ -1919,12 +1919,12 @@
     <t>Shock Draga</t>
   </si>
   <si>
+    <t>002-Er</t>
+  </si>
+  <si>
     <t>Mutalist Alad V</t>
   </si>
   <si>
-    <t>002-Er</t>
-  </si>
-  <si>
     <t>Turret</t>
   </si>
   <si>
@@ -2087,12 +2087,12 @@
     <t>Attack Mutalist</t>
   </si>
   <si>
+    <t>Auditor</t>
+  </si>
+  <si>
     <t>Terra Oxium Osprey</t>
   </si>
   <si>
-    <t>Auditor</t>
-  </si>
-  <si>
     <t>Kuva Heavy Gunner</t>
   </si>
   <si>
@@ -2225,13 +2225,16 @@
     <t>Kuva Scorpion</t>
   </si>
   <si>
+    <t>Frontier Bailiff</t>
+  </si>
+  <si>
     <t>Vay Hek Terra Frame</t>
   </si>
   <si>
     <t>Trooper</t>
   </si>
   <si>
-    <t>Frontier Bailiff</t>
+    <t>Arid Trooper</t>
   </si>
   <si>
     <t>Bailiff</t>
@@ -2240,9 +2243,6 @@
     <t>Seismic Wave</t>
   </si>
   <si>
-    <t>Arid Trooper</t>
-  </si>
-  <si>
     <t>Frontier Regulator</t>
   </si>
   <si>
@@ -2357,18 +2357,18 @@
     <t>Kuva Elite Lancer</t>
   </si>
   <si>
+    <t>Terra Elite Provisor</t>
+  </si>
+  <si>
+    <t>Sniper Crewman</t>
+  </si>
+  <si>
+    <t>Stalking Fan</t>
+  </si>
+  <si>
     <t>Nullifier Crewman</t>
   </si>
   <si>
-    <t>Stalking Fan</t>
-  </si>
-  <si>
-    <t>Terra Elite Provisor</t>
-  </si>
-  <si>
-    <t>Sniper Crewman</t>
-  </si>
-  <si>
     <t>Corrupted Lancer</t>
   </si>
   <si>
@@ -2420,24 +2420,24 @@
     <t>Elite Frontier Lancer</t>
   </si>
   <si>
+    <t>Nauseous Void Shade</t>
+  </si>
+  <si>
     <t>Kuva Lancer</t>
   </si>
   <si>
-    <t>Nauseous Void Shade</t>
-  </si>
-  <si>
     <t>Kuva Powerclaw</t>
   </si>
   <si>
     <t>Rana Del</t>
   </si>
   <si>
+    <t>Kuva Hyekka Master</t>
+  </si>
+  <si>
     <t>Bailiff Defector</t>
   </si>
   <si>
-    <t>Kuva Hyekka Master</t>
-  </si>
-  <si>
     <t>Frontier Lancer</t>
   </si>
   <si>
@@ -2513,15 +2513,15 @@
     <t>Synth Reflex</t>
   </si>
   <si>
+    <t>Frontier Seeker</t>
+  </si>
+  <si>
     <t>Ambulas</t>
   </si>
   <si>
     <t>0.8</t>
   </si>
   <si>
-    <t>Frontier Seeker</t>
-  </si>
-  <si>
     <t>Lt Lech Kril</t>
   </si>
   <si>
@@ -2543,15 +2543,15 @@
     <t>Self Destruct</t>
   </si>
   <si>
+    <t>Jordas Golem</t>
+  </si>
+  <si>
+    <t>Sentient Research Director</t>
+  </si>
+  <si>
     <t>Corrupted Nullifier</t>
   </si>
   <si>
-    <t>Jordas Golem</t>
-  </si>
-  <si>
-    <t>Sentient Research Director</t>
-  </si>
-  <si>
     <t>Terra Plasmor Crewman</t>
   </si>
   <si>
@@ -2585,15 +2585,15 @@
     <t>Toxic Crawler</t>
   </si>
   <si>
+    <t>Fog Scrambus</t>
+  </si>
+  <si>
     <t>Grineer Manic</t>
   </si>
   <si>
     <t>Four Riders</t>
   </si>
   <si>
-    <t>Fog Scrambus</t>
-  </si>
-  <si>
     <t>Hyena Ln2</t>
   </si>
   <si>
@@ -2633,15 +2633,15 @@
     <t>Raptor Ns</t>
   </si>
   <si>
+    <t>Hyekka Master</t>
+  </si>
+  <si>
+    <t>Terra Attack Drone</t>
+  </si>
+  <si>
     <t>Leekter</t>
   </si>
   <si>
-    <t>Hyekka Master</t>
-  </si>
-  <si>
-    <t>Terra Attack Drone</t>
-  </si>
-  <si>
     <t>Mania</t>
   </si>
   <si>
@@ -2699,24 +2699,24 @@
     <t>Contamination Casing</t>
   </si>
   <si>
+    <t>Cannon Battery</t>
+  </si>
+  <si>
     <t>Eidolon Vomvalyst</t>
   </si>
   <si>
     <t>Stinging Thorn</t>
   </si>
   <si>
-    <t>Cannon Battery</t>
-  </si>
-  <si>
     <t>Terra Anti Moa</t>
   </si>
   <si>
+    <t>Corpus Supra Target</t>
+  </si>
+  <si>
     <t>Lobber Crawler</t>
   </si>
   <si>
-    <t>Corpus Supra Target</t>
-  </si>
-  <si>
     <t>Grineer Warden</t>
   </si>
   <si>
@@ -2726,12 +2726,12 @@
     <t>Regulator</t>
   </si>
   <si>
+    <t>Kuva Drahk Master</t>
+  </si>
+  <si>
     <t>Orokin Spectator</t>
   </si>
   <si>
-    <t>Kuva Drahk Master</t>
-  </si>
-  <si>
     <t>Penta Ranger</t>
   </si>
   <si>
@@ -2762,13 +2762,28 @@
     <t>0.0047</t>
   </si>
   <si>
+    <t>Executioner Dhurnam</t>
+  </si>
+  <si>
+    <t>Silent Battery</t>
+  </si>
+  <si>
     <t>Terra Turret Osprey</t>
   </si>
   <si>
-    <t>Executioner Dhurnam</t>
-  </si>
-  <si>
-    <t>Silent Battery</t>
+    <t>Corpus Cestra Target</t>
+  </si>
+  <si>
+    <t>Tek Assault</t>
+  </si>
+  <si>
+    <t>Tek Enhance</t>
+  </si>
+  <si>
+    <t>Tek Gravity</t>
+  </si>
+  <si>
+    <t>Tek Collateral</t>
   </si>
   <si>
     <t>Corrupted Ancient</t>
@@ -2786,21 +2801,6 @@
     <t>Quick Thinking</t>
   </si>
   <si>
-    <t>Corpus Cestra Target</t>
-  </si>
-  <si>
-    <t>Tek Assault</t>
-  </si>
-  <si>
-    <t>Tek Enhance</t>
-  </si>
-  <si>
-    <t>Tek Gravity</t>
-  </si>
-  <si>
-    <t>Tek Collateral</t>
-  </si>
-  <si>
     <t>Ancient Healer</t>
   </si>
   <si>
@@ -2828,12 +2828,12 @@
     <t>Azoth</t>
   </si>
   <si>
+    <t>Tusk Elite Lancer</t>
+  </si>
+  <si>
     <t>Leech Osprey</t>
   </si>
   <si>
-    <t>Tusk Elite Lancer</t>
-  </si>
-  <si>
     <t>Kuva Drahk</t>
   </si>
   <si>
@@ -2867,58 +2867,58 @@
     <t>Lockjaw &amp; Sol</t>
   </si>
   <si>
+    <t>Eidolon Teralyst</t>
+  </si>
+  <si>
+    <t>Collision Force</t>
+  </si>
+  <si>
+    <t>Pummel</t>
+  </si>
+  <si>
+    <t>Crash Course</t>
+  </si>
+  <si>
+    <t>Full Contact</t>
+  </si>
+  <si>
+    <t>Arcane Tempo</t>
+  </si>
+  <si>
+    <t>0.185</t>
+  </si>
+  <si>
+    <t>Arcane Consequence</t>
+  </si>
+  <si>
+    <t>0.1495</t>
+  </si>
+  <si>
+    <t>Arcane Momentum</t>
+  </si>
+  <si>
+    <t>Arcane Ice</t>
+  </si>
+  <si>
+    <t>Arcane Nullifier</t>
+  </si>
+  <si>
+    <t>Arcane Warmth</t>
+  </si>
+  <si>
+    <t>Arcane Resistance</t>
+  </si>
+  <si>
+    <t>0.0678</t>
+  </si>
+  <si>
     <t>Ancient Infested</t>
   </si>
   <si>
-    <t>Eidolon Teralyst</t>
-  </si>
-  <si>
-    <t>Collision Force</t>
-  </si>
-  <si>
-    <t>Pummel</t>
-  </si>
-  <si>
-    <t>Crash Course</t>
-  </si>
-  <si>
-    <t>Full Contact</t>
-  </si>
-  <si>
-    <t>Arcane Tempo</t>
-  </si>
-  <si>
-    <t>0.185</t>
-  </si>
-  <si>
-    <t>Arcane Consequence</t>
-  </si>
-  <si>
-    <t>0.1495</t>
-  </si>
-  <si>
-    <t>Arcane Momentum</t>
-  </si>
-  <si>
-    <t>Arcane Ice</t>
-  </si>
-  <si>
-    <t>Arcane Nullifier</t>
-  </si>
-  <si>
-    <t>Arcane Warmth</t>
-  </si>
-  <si>
-    <t>Arcane Resistance</t>
-  </si>
-  <si>
-    <t>0.0678</t>
+    <t>Hyena Th</t>
   </si>
   <si>
     <t>Vem Tabook</t>
-  </si>
-  <si>
-    <t>Hyena Th</t>
   </si>
   <si>
     <t>Terra Raptor Sx</t>
@@ -4404,126 +4404,126 @@
         <v>181</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
         <v>89</v>
       </c>
       <c r="D17" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="E17" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="F17" t="s">
         <v>89</v>
       </c>
       <c r="G17" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" t="s">
+        <v>89</v>
+      </c>
+      <c r="M17" t="s">
+        <v>114</v>
+      </c>
+      <c r="N17" t="s">
+        <v>105</v>
+      </c>
+      <c r="O17" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" t="s">
         <v>118</v>
       </c>
-      <c r="H17" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" t="s">
-        <v>89</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="Q17" t="s">
+        <v>119</v>
+      </c>
+      <c r="R17" t="s">
+        <v>89</v>
+      </c>
+      <c r="S17" t="s">
         <v>118</v>
       </c>
-      <c r="K17" t="s">
-        <v>184</v>
-      </c>
-      <c r="L17" t="s">
-        <v>89</v>
-      </c>
-      <c r="M17" t="s">
-        <v>82</v>
-      </c>
-      <c r="N17" t="s">
-        <v>185</v>
-      </c>
-      <c r="O17" t="s">
-        <v>89</v>
-      </c>
-      <c r="P17" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q17" t="s">
+      <c r="T17" t="s">
         <v>120</v>
       </c>
-      <c r="R17" t="s">
-        <v>89</v>
-      </c>
-      <c r="S17" t="s">
-        <v>82</v>
+      <c r="U17" t="s">
+        <v>89</v>
+      </c>
+      <c r="V17" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" t="s">
+        <v>184</v>
+      </c>
+      <c r="F18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" t="s">
+        <v>185</v>
+      </c>
+      <c r="L18" t="s">
+        <v>89</v>
+      </c>
+      <c r="M18" t="s">
+        <v>82</v>
+      </c>
+      <c r="N18" t="s">
         <v>186</v>
       </c>
-      <c r="B18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E18" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" t="s">
-        <v>114</v>
-      </c>
-      <c r="H18" t="s">
-        <v>116</v>
-      </c>
-      <c r="I18" t="s">
-        <v>89</v>
-      </c>
-      <c r="J18" t="s">
-        <v>114</v>
-      </c>
-      <c r="K18" t="s">
-        <v>117</v>
-      </c>
-      <c r="L18" t="s">
-        <v>89</v>
-      </c>
-      <c r="M18" t="s">
-        <v>114</v>
-      </c>
-      <c r="N18" t="s">
-        <v>105</v>
-      </c>
       <c r="O18" t="s">
         <v>89</v>
       </c>
       <c r="P18" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="Q18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="R18" t="s">
         <v>89</v>
       </c>
       <c r="S18" t="s">
-        <v>118</v>
-      </c>
-      <c r="T18" t="s">
-        <v>120</v>
-      </c>
-      <c r="U18" t="s">
-        <v>89</v>
-      </c>
-      <c r="V18" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
@@ -6122,135 +6122,135 @@
         <v>296</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>297</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E42" t="s">
-        <v>205</v>
+        <v>298</v>
       </c>
       <c r="F42" t="s">
-        <v>89</v>
+        <v>297</v>
       </c>
       <c r="G42" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H42" t="s">
-        <v>252</v>
+        <v>92</v>
       </c>
       <c r="I42" t="s">
-        <v>89</v>
+        <v>297</v>
       </c>
       <c r="J42" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K42" t="s">
-        <v>88</v>
+        <v>299</v>
       </c>
       <c r="L42" t="s">
-        <v>89</v>
+        <v>297</v>
       </c>
       <c r="M42" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="N42" t="s">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="O42" t="s">
-        <v>89</v>
+        <v>297</v>
       </c>
       <c r="P42" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="Q42" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="R42" t="s">
-        <v>89</v>
+        <v>297</v>
       </c>
       <c r="S42" t="s">
-        <v>126</v>
-      </c>
-      <c r="T42" t="s">
-        <v>92</v>
-      </c>
-      <c r="U42" t="s">
-        <v>89</v>
-      </c>
-      <c r="V42" t="s">
-        <v>126</v>
-      </c>
-      <c r="W42" t="s">
-        <v>120</v>
-      </c>
-      <c r="X42" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" t="s">
+        <v>205</v>
+      </c>
+      <c r="F43" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H43" t="s">
+        <v>252</v>
+      </c>
+      <c r="I43" t="s">
+        <v>89</v>
+      </c>
+      <c r="J43" t="s">
+        <v>114</v>
+      </c>
+      <c r="K43" t="s">
         <v>88</v>
       </c>
-      <c r="C43" t="s">
-        <v>298</v>
-      </c>
-      <c r="D43" t="s">
-        <v>100</v>
-      </c>
-      <c r="E43" t="s">
-        <v>299</v>
-      </c>
-      <c r="F43" t="s">
-        <v>298</v>
-      </c>
-      <c r="G43" t="s">
-        <v>100</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="L43" t="s">
+        <v>89</v>
+      </c>
+      <c r="M43" t="s">
+        <v>114</v>
+      </c>
+      <c r="N43" t="s">
+        <v>253</v>
+      </c>
+      <c r="O43" t="s">
+        <v>89</v>
+      </c>
+      <c r="P43" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>254</v>
+      </c>
+      <c r="R43" t="s">
+        <v>89</v>
+      </c>
+      <c r="S43" t="s">
+        <v>126</v>
+      </c>
+      <c r="T43" t="s">
         <v>92</v>
       </c>
-      <c r="I43" t="s">
-        <v>298</v>
-      </c>
-      <c r="J43" t="s">
-        <v>118</v>
-      </c>
-      <c r="K43" t="s">
-        <v>300</v>
-      </c>
-      <c r="L43" t="s">
-        <v>298</v>
-      </c>
-      <c r="M43" t="s">
-        <v>118</v>
-      </c>
-      <c r="N43" t="s">
-        <v>301</v>
-      </c>
-      <c r="O43" t="s">
-        <v>298</v>
-      </c>
-      <c r="P43" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>283</v>
-      </c>
-      <c r="R43" t="s">
-        <v>298</v>
-      </c>
-      <c r="S43" t="s">
-        <v>110</v>
+      <c r="U43" t="s">
+        <v>89</v>
+      </c>
+      <c r="V43" t="s">
+        <v>126</v>
+      </c>
+      <c r="W43" t="s">
+        <v>120</v>
+      </c>
+      <c r="X43" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="44">
@@ -6350,7 +6350,7 @@
         <v>306</v>
       </c>
       <c r="D45" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E45" t="s">
         <v>307</v>
@@ -6359,7 +6359,7 @@
         <v>306</v>
       </c>
       <c r="G45" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H45" t="s">
         <v>308</v>
@@ -6368,7 +6368,7 @@
         <v>306</v>
       </c>
       <c r="J45" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K45" t="s">
         <v>120</v>
@@ -6377,7 +6377,7 @@
         <v>306</v>
       </c>
       <c r="M45" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N45" t="s">
         <v>115</v>
@@ -6688,7 +6688,7 @@
         <v>114</v>
       </c>
       <c r="H49" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I49" t="s">
         <v>89</v>
@@ -7047,7 +7047,7 @@
         <v>271</v>
       </c>
       <c r="D53" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E53" t="s">
         <v>352</v>
@@ -7056,7 +7056,7 @@
         <v>271</v>
       </c>
       <c r="G53" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H53" t="s">
         <v>353</v>
@@ -7065,7 +7065,7 @@
         <v>271</v>
       </c>
       <c r="J53" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K53" t="s">
         <v>354</v>
@@ -7074,7 +7074,7 @@
         <v>271</v>
       </c>
       <c r="M53" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="54">
@@ -7390,7 +7390,7 @@
         <v>359</v>
       </c>
       <c r="B58" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C58" t="s">
         <v>89</v>
@@ -7399,7 +7399,7 @@
         <v>162</v>
       </c>
       <c r="E58" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F58" t="s">
         <v>89</v>
@@ -7417,7 +7417,7 @@
         <v>118</v>
       </c>
       <c r="K58" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L58" t="s">
         <v>89</v>
@@ -7426,7 +7426,7 @@
         <v>82</v>
       </c>
       <c r="N58" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O58" t="s">
         <v>89</v>
@@ -7877,7 +7877,7 @@
         <v>306</v>
       </c>
       <c r="D66" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E66" t="s">
         <v>307</v>
@@ -7886,7 +7886,7 @@
         <v>306</v>
       </c>
       <c r="G66" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H66" t="s">
         <v>308</v>
@@ -7895,7 +7895,7 @@
         <v>306</v>
       </c>
       <c r="J66" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K66" t="s">
         <v>120</v>
@@ -7904,7 +7904,7 @@
         <v>306</v>
       </c>
       <c r="M66" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N66" t="s">
         <v>115</v>
@@ -8246,7 +8246,7 @@
         <v>168</v>
       </c>
       <c r="K69" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L69" t="s">
         <v>384</v>
@@ -8298,7 +8298,7 @@
         <v>273</v>
       </c>
       <c r="D71" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E71" t="s">
         <v>389</v>
@@ -8307,7 +8307,7 @@
         <v>273</v>
       </c>
       <c r="G71" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H71" t="s">
         <v>390</v>
@@ -8316,7 +8316,7 @@
         <v>273</v>
       </c>
       <c r="J71" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K71" t="s">
         <v>391</v>
@@ -8325,7 +8325,7 @@
         <v>273</v>
       </c>
       <c r="M71" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="72">
@@ -8475,7 +8475,7 @@
         <v>273</v>
       </c>
       <c r="D74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E74" t="s">
         <v>389</v>
@@ -8484,7 +8484,7 @@
         <v>273</v>
       </c>
       <c r="G74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H74" t="s">
         <v>390</v>
@@ -8493,7 +8493,7 @@
         <v>273</v>
       </c>
       <c r="J74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K74" t="s">
         <v>391</v>
@@ -8502,7 +8502,7 @@
         <v>273</v>
       </c>
       <c r="M74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="75">
@@ -9144,161 +9144,161 @@
         <v>431</v>
       </c>
       <c r="B83" t="s">
-        <v>432</v>
+        <v>141</v>
       </c>
       <c r="C83" t="s">
         <v>89</v>
       </c>
       <c r="D83" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="E83" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F83" t="s">
         <v>89</v>
       </c>
       <c r="G83" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="H83" t="s">
+        <v>143</v>
+      </c>
+      <c r="I83" t="s">
+        <v>89</v>
+      </c>
+      <c r="J83" t="s">
+        <v>142</v>
+      </c>
+      <c r="K83" t="s">
+        <v>144</v>
+      </c>
+      <c r="L83" t="s">
+        <v>89</v>
+      </c>
+      <c r="M83" t="s">
+        <v>142</v>
+      </c>
+      <c r="N83" t="s">
         <v>88</v>
       </c>
-      <c r="I83" t="s">
-        <v>89</v>
-      </c>
-      <c r="J83" t="s">
-        <v>124</v>
-      </c>
-      <c r="K83" t="s">
-        <v>433</v>
-      </c>
-      <c r="L83" t="s">
-        <v>89</v>
-      </c>
-      <c r="M83" t="s">
-        <v>118</v>
-      </c>
-      <c r="N83" t="s">
-        <v>156</v>
-      </c>
       <c r="O83" t="s">
         <v>89</v>
       </c>
       <c r="P83" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="Q83" t="s">
-        <v>434</v>
+        <v>92</v>
       </c>
       <c r="R83" t="s">
         <v>89</v>
       </c>
       <c r="S83" t="s">
+        <v>126</v>
+      </c>
+      <c r="T83" t="s">
+        <v>145</v>
+      </c>
+      <c r="U83" t="s">
+        <v>89</v>
+      </c>
+      <c r="V83" t="s">
+        <v>126</v>
+      </c>
+      <c r="W83" t="s">
+        <v>146</v>
+      </c>
+      <c r="X83" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB83" t="s">
         <v>110</v>
       </c>
-      <c r="T83" t="s">
-        <v>120</v>
-      </c>
-      <c r="U83" t="s">
-        <v>89</v>
-      </c>
-      <c r="V83" t="s">
+      <c r="AC83" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE83" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>432</v>
+      </c>
+      <c r="B84" t="s">
+        <v>433</v>
+      </c>
+      <c r="C84" t="s">
+        <v>89</v>
+      </c>
+      <c r="D84" t="s">
+        <v>124</v>
+      </c>
+      <c r="E84" t="s">
+        <v>98</v>
+      </c>
+      <c r="F84" t="s">
+        <v>89</v>
+      </c>
+      <c r="G84" t="s">
+        <v>124</v>
+      </c>
+      <c r="H84" t="s">
+        <v>88</v>
+      </c>
+      <c r="I84" t="s">
+        <v>89</v>
+      </c>
+      <c r="J84" t="s">
+        <v>124</v>
+      </c>
+      <c r="K84" t="s">
+        <v>434</v>
+      </c>
+      <c r="L84" t="s">
+        <v>89</v>
+      </c>
+      <c r="M84" t="s">
+        <v>118</v>
+      </c>
+      <c r="N84" t="s">
+        <v>156</v>
+      </c>
+      <c r="O84" t="s">
+        <v>89</v>
+      </c>
+      <c r="P84" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q84" t="s">
         <v>435</v>
       </c>
-      <c r="B84" t="s">
-        <v>141</v>
-      </c>
-      <c r="C84" t="s">
-        <v>89</v>
-      </c>
-      <c r="D84" t="s">
-        <v>142</v>
-      </c>
-      <c r="E84" t="s">
-        <v>101</v>
-      </c>
-      <c r="F84" t="s">
-        <v>89</v>
-      </c>
-      <c r="G84" t="s">
-        <v>142</v>
-      </c>
-      <c r="H84" t="s">
-        <v>143</v>
-      </c>
-      <c r="I84" t="s">
-        <v>89</v>
-      </c>
-      <c r="J84" t="s">
-        <v>142</v>
-      </c>
-      <c r="K84" t="s">
-        <v>144</v>
-      </c>
-      <c r="L84" t="s">
-        <v>89</v>
-      </c>
-      <c r="M84" t="s">
-        <v>142</v>
-      </c>
-      <c r="N84" t="s">
-        <v>88</v>
-      </c>
-      <c r="O84" t="s">
-        <v>89</v>
-      </c>
-      <c r="P84" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>92</v>
-      </c>
       <c r="R84" t="s">
         <v>89</v>
       </c>
       <c r="S84" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="T84" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="U84" t="s">
         <v>89</v>
       </c>
       <c r="V84" t="s">
-        <v>126</v>
-      </c>
-      <c r="W84" t="s">
-        <v>146</v>
-      </c>
-      <c r="X84" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y84" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z84" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA84" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB84" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC84" t="s">
-        <v>148</v>
-      </c>
-      <c r="AD84" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE84" t="s">
         <v>110</v>
       </c>
     </row>
@@ -9384,158 +9384,158 @@
         <v>437</v>
       </c>
       <c r="B86" t="s">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>233</v>
+        <v>89</v>
       </c>
       <c r="D86" t="s">
-        <v>100</v>
+        <v>438</v>
       </c>
       <c r="E86" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="F86" t="s">
-        <v>233</v>
+        <v>89</v>
       </c>
       <c r="G86" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H86" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="I86" t="s">
-        <v>233</v>
+        <v>89</v>
       </c>
       <c r="J86" t="s">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c r="K86" t="s">
-        <v>234</v>
+        <v>439</v>
       </c>
       <c r="L86" t="s">
-        <v>233</v>
+        <v>89</v>
       </c>
       <c r="M86" t="s">
-        <v>121</v>
+        <v>93</v>
+      </c>
+      <c r="N86" t="s">
+        <v>229</v>
+      </c>
+      <c r="O86" t="s">
+        <v>89</v>
+      </c>
+      <c r="P86" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B87" t="s">
-        <v>432</v>
+        <v>205</v>
       </c>
       <c r="C87" t="s">
-        <v>89</v>
+        <v>233</v>
       </c>
       <c r="D87" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="E87" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="F87" t="s">
-        <v>89</v>
+        <v>233</v>
       </c>
       <c r="G87" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="H87" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="I87" t="s">
-        <v>89</v>
+        <v>233</v>
       </c>
       <c r="J87" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="K87" t="s">
-        <v>433</v>
+        <v>234</v>
       </c>
       <c r="L87" t="s">
-        <v>89</v>
+        <v>233</v>
       </c>
       <c r="M87" t="s">
-        <v>118</v>
-      </c>
-      <c r="N87" t="s">
-        <v>156</v>
-      </c>
-      <c r="O87" t="s">
-        <v>89</v>
-      </c>
-      <c r="P87" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>434</v>
-      </c>
-      <c r="R87" t="s">
-        <v>89</v>
-      </c>
-      <c r="S87" t="s">
-        <v>110</v>
-      </c>
-      <c r="T87" t="s">
-        <v>120</v>
-      </c>
-      <c r="U87" t="s">
-        <v>89</v>
-      </c>
-      <c r="V87" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B88" t="s">
+        <v>433</v>
+      </c>
+      <c r="C88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D88" t="s">
+        <v>124</v>
+      </c>
+      <c r="E88" t="s">
+        <v>98</v>
+      </c>
+      <c r="F88" t="s">
+        <v>89</v>
+      </c>
+      <c r="G88" t="s">
+        <v>124</v>
+      </c>
+      <c r="H88" t="s">
         <v>88</v>
       </c>
-      <c r="C88" t="s">
-        <v>89</v>
-      </c>
-      <c r="D88" t="s">
-        <v>440</v>
-      </c>
-      <c r="E88" t="s">
-        <v>92</v>
-      </c>
-      <c r="F88" t="s">
-        <v>89</v>
-      </c>
-      <c r="G88" t="s">
-        <v>93</v>
-      </c>
-      <c r="H88" t="s">
-        <v>94</v>
-      </c>
       <c r="I88" t="s">
         <v>89</v>
       </c>
       <c r="J88" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="K88" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="L88" t="s">
         <v>89</v>
       </c>
       <c r="M88" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="N88" t="s">
-        <v>229</v>
+        <v>156</v>
       </c>
       <c r="O88" t="s">
         <v>89</v>
       </c>
       <c r="P88" t="s">
-        <v>93</v>
+        <v>118</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>435</v>
+      </c>
+      <c r="R88" t="s">
+        <v>89</v>
+      </c>
+      <c r="S88" t="s">
+        <v>110</v>
+      </c>
+      <c r="T88" t="s">
+        <v>120</v>
+      </c>
+      <c r="U88" t="s">
+        <v>89</v>
+      </c>
+      <c r="V88" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="89">
@@ -10315,7 +10315,7 @@
         <v>306</v>
       </c>
       <c r="D100" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E100" t="s">
         <v>307</v>
@@ -10324,7 +10324,7 @@
         <v>306</v>
       </c>
       <c r="G100" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H100" t="s">
         <v>308</v>
@@ -10333,7 +10333,7 @@
         <v>306</v>
       </c>
       <c r="J100" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K100" t="s">
         <v>120</v>
@@ -10342,7 +10342,7 @@
         <v>306</v>
       </c>
       <c r="M100" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N100" t="s">
         <v>115</v>
@@ -10938,126 +10938,126 @@
         <v>484</v>
       </c>
       <c r="B107" t="s">
-        <v>365</v>
+        <v>485</v>
       </c>
       <c r="C107" t="s">
         <v>63</v>
       </c>
       <c r="D107" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>486</v>
       </c>
       <c r="F107" t="s">
         <v>63</v>
       </c>
       <c r="G107" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H107" t="s">
-        <v>366</v>
+        <v>487</v>
       </c>
       <c r="I107" t="s">
         <v>63</v>
       </c>
       <c r="J107" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="K107" t="s">
-        <v>367</v>
+        <v>488</v>
       </c>
       <c r="L107" t="s">
         <v>63</v>
       </c>
       <c r="M107" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="N107" t="s">
-        <v>368</v>
+        <v>489</v>
       </c>
       <c r="O107" t="s">
         <v>63</v>
       </c>
       <c r="P107" t="s">
-        <v>138</v>
+        <v>289</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>490</v>
+      </c>
+      <c r="R107" t="s">
+        <v>63</v>
+      </c>
+      <c r="S107" t="s">
+        <v>289</v>
+      </c>
+      <c r="T107" t="s">
+        <v>491</v>
+      </c>
+      <c r="U107" t="s">
+        <v>63</v>
+      </c>
+      <c r="V107" t="s">
+        <v>289</v>
+      </c>
+      <c r="W107" t="s">
+        <v>492</v>
+      </c>
+      <c r="X107" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="B108" t="s">
-        <v>486</v>
+        <v>365</v>
       </c>
       <c r="C108" t="s">
         <v>63</v>
       </c>
       <c r="D108" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E108" t="s">
-        <v>487</v>
+        <v>213</v>
       </c>
       <c r="F108" t="s">
         <v>63</v>
       </c>
       <c r="G108" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H108" t="s">
-        <v>488</v>
+        <v>366</v>
       </c>
       <c r="I108" t="s">
         <v>63</v>
       </c>
       <c r="J108" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="K108" t="s">
-        <v>489</v>
+        <v>367</v>
       </c>
       <c r="L108" t="s">
         <v>63</v>
       </c>
       <c r="M108" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="N108" t="s">
-        <v>490</v>
+        <v>368</v>
       </c>
       <c r="O108" t="s">
         <v>63</v>
       </c>
       <c r="P108" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>491</v>
-      </c>
-      <c r="R108" t="s">
-        <v>63</v>
-      </c>
-      <c r="S108" t="s">
-        <v>289</v>
-      </c>
-      <c r="T108" t="s">
-        <v>492</v>
-      </c>
-      <c r="U108" t="s">
-        <v>63</v>
-      </c>
-      <c r="V108" t="s">
-        <v>289</v>
-      </c>
-      <c r="W108" t="s">
-        <v>493</v>
-      </c>
-      <c r="X108" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y108" t="s">
-        <v>289</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109">
@@ -11453,7 +11453,7 @@
         <v>502</v>
       </c>
       <c r="C114" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D114" t="s">
         <v>314</v>
@@ -11462,7 +11462,7 @@
         <v>503</v>
       </c>
       <c r="F114" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G114" t="s">
         <v>314</v>
@@ -11471,7 +11471,7 @@
         <v>504</v>
       </c>
       <c r="I114" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J114" t="s">
         <v>314</v>
@@ -11480,7 +11480,7 @@
         <v>505</v>
       </c>
       <c r="L114" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M114" t="s">
         <v>506</v>
@@ -11489,7 +11489,7 @@
         <v>507</v>
       </c>
       <c r="O114" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P114" t="s">
         <v>506</v>
@@ -11498,7 +11498,7 @@
         <v>508</v>
       </c>
       <c r="R114" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="S114" t="s">
         <v>506</v>
@@ -11507,7 +11507,7 @@
         <v>509</v>
       </c>
       <c r="U114" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="V114" t="s">
         <v>506</v>
@@ -11516,7 +11516,7 @@
         <v>510</v>
       </c>
       <c r="X114" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Y114" t="s">
         <v>506</v>
@@ -11630,132 +11630,132 @@
         <v>521</v>
       </c>
       <c r="C117" t="s">
-        <v>63</v>
+        <v>522</v>
       </c>
       <c r="D117" t="s">
-        <v>271</v>
+        <v>523</v>
       </c>
       <c r="E117" t="s">
-        <v>128</v>
+        <v>524</v>
       </c>
       <c r="F117" t="s">
-        <v>63</v>
+        <v>522</v>
       </c>
       <c r="G117" t="s">
-        <v>271</v>
+        <v>523</v>
       </c>
       <c r="H117" t="s">
-        <v>109</v>
+        <v>525</v>
       </c>
       <c r="I117" t="s">
-        <v>63</v>
+        <v>522</v>
       </c>
       <c r="J117" t="s">
-        <v>271</v>
+        <v>523</v>
       </c>
       <c r="K117" t="s">
-        <v>165</v>
+        <v>526</v>
       </c>
       <c r="L117" t="s">
-        <v>63</v>
+        <v>522</v>
       </c>
       <c r="M117" t="s">
-        <v>271</v>
+        <v>523</v>
       </c>
       <c r="N117" t="s">
-        <v>120</v>
+        <v>527</v>
       </c>
       <c r="O117" t="s">
-        <v>63</v>
+        <v>522</v>
       </c>
       <c r="P117" t="s">
-        <v>271</v>
+        <v>523</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>528</v>
+      </c>
+      <c r="R117" t="s">
+        <v>522</v>
+      </c>
+      <c r="S117" t="s">
+        <v>523</v>
+      </c>
+      <c r="T117" t="s">
+        <v>529</v>
+      </c>
+      <c r="U117" t="s">
+        <v>522</v>
+      </c>
+      <c r="V117" t="s">
+        <v>316</v>
+      </c>
+      <c r="W117" t="s">
+        <v>530</v>
+      </c>
+      <c r="X117" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>316</v>
+      </c>
+      <c r="Z117" t="s">
+        <v>531</v>
+      </c>
+      <c r="AA117" t="s">
+        <v>522</v>
+      </c>
+      <c r="AB117" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="B118" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="C118" t="s">
-        <v>524</v>
+        <v>63</v>
       </c>
       <c r="D118" t="s">
-        <v>525</v>
+        <v>271</v>
       </c>
       <c r="E118" t="s">
-        <v>526</v>
+        <v>128</v>
       </c>
       <c r="F118" t="s">
-        <v>524</v>
+        <v>63</v>
       </c>
       <c r="G118" t="s">
-        <v>525</v>
+        <v>271</v>
       </c>
       <c r="H118" t="s">
-        <v>527</v>
+        <v>109</v>
       </c>
       <c r="I118" t="s">
-        <v>524</v>
+        <v>63</v>
       </c>
       <c r="J118" t="s">
-        <v>525</v>
+        <v>271</v>
       </c>
       <c r="K118" t="s">
-        <v>528</v>
+        <v>165</v>
       </c>
       <c r="L118" t="s">
-        <v>524</v>
+        <v>63</v>
       </c>
       <c r="M118" t="s">
-        <v>525</v>
+        <v>271</v>
       </c>
       <c r="N118" t="s">
-        <v>529</v>
+        <v>120</v>
       </c>
       <c r="O118" t="s">
-        <v>524</v>
+        <v>63</v>
       </c>
       <c r="P118" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>530</v>
-      </c>
-      <c r="R118" t="s">
-        <v>524</v>
-      </c>
-      <c r="S118" t="s">
-        <v>525</v>
-      </c>
-      <c r="T118" t="s">
-        <v>531</v>
-      </c>
-      <c r="U118" t="s">
-        <v>524</v>
-      </c>
-      <c r="V118" t="s">
-        <v>316</v>
-      </c>
-      <c r="W118" t="s">
-        <v>532</v>
-      </c>
-      <c r="X118" t="s">
-        <v>524</v>
-      </c>
-      <c r="Y118" t="s">
-        <v>316</v>
-      </c>
-      <c r="Z118" t="s">
-        <v>533</v>
-      </c>
-      <c r="AA118" t="s">
-        <v>524</v>
-      </c>
-      <c r="AB118" t="s">
-        <v>316</v>
+        <v>271</v>
       </c>
     </row>
     <row r="119">
@@ -13049,126 +13049,126 @@
         <v>564</v>
       </c>
       <c r="B135" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="C135" t="s">
-        <v>89</v>
+        <v>243</v>
       </c>
       <c r="D135" t="s">
-        <v>565</v>
+        <v>124</v>
       </c>
       <c r="E135" t="s">
-        <v>553</v>
+        <v>281</v>
       </c>
       <c r="F135" t="s">
-        <v>89</v>
+        <v>243</v>
       </c>
       <c r="G135" t="s">
-        <v>565</v>
+        <v>124</v>
       </c>
       <c r="H135" t="s">
-        <v>443</v>
+        <v>228</v>
       </c>
       <c r="I135" t="s">
-        <v>89</v>
+        <v>243</v>
       </c>
       <c r="J135" t="s">
-        <v>565</v>
+        <v>124</v>
       </c>
       <c r="K135" t="s">
-        <v>566</v>
+        <v>92</v>
       </c>
       <c r="L135" t="s">
-        <v>89</v>
+        <v>243</v>
       </c>
       <c r="M135" t="s">
-        <v>565</v>
+        <v>118</v>
       </c>
       <c r="N135" t="s">
-        <v>102</v>
+        <v>282</v>
       </c>
       <c r="O135" t="s">
-        <v>89</v>
+        <v>243</v>
       </c>
       <c r="P135" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="Q135" t="s">
-        <v>567</v>
+        <v>283</v>
       </c>
       <c r="R135" t="s">
-        <v>89</v>
+        <v>243</v>
       </c>
       <c r="S135" t="s">
-        <v>138</v>
-      </c>
-      <c r="T135" t="s">
-        <v>92</v>
-      </c>
-      <c r="U135" t="s">
-        <v>89</v>
-      </c>
-      <c r="V135" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>565</v>
+      </c>
+      <c r="B136" t="s">
+        <v>134</v>
+      </c>
+      <c r="C136" t="s">
+        <v>89</v>
+      </c>
+      <c r="D136" t="s">
+        <v>566</v>
+      </c>
+      <c r="E136" t="s">
+        <v>553</v>
+      </c>
+      <c r="F136" t="s">
+        <v>89</v>
+      </c>
+      <c r="G136" t="s">
+        <v>566</v>
+      </c>
+      <c r="H136" t="s">
+        <v>443</v>
+      </c>
+      <c r="I136" t="s">
+        <v>89</v>
+      </c>
+      <c r="J136" t="s">
+        <v>566</v>
+      </c>
+      <c r="K136" t="s">
+        <v>567</v>
+      </c>
+      <c r="L136" t="s">
+        <v>89</v>
+      </c>
+      <c r="M136" t="s">
+        <v>566</v>
+      </c>
+      <c r="N136" t="s">
+        <v>102</v>
+      </c>
+      <c r="O136" t="s">
+        <v>89</v>
+      </c>
+      <c r="P136" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q136" t="s">
         <v>568</v>
       </c>
-      <c r="B136" t="s">
-        <v>88</v>
-      </c>
-      <c r="C136" t="s">
-        <v>243</v>
-      </c>
-      <c r="D136" t="s">
-        <v>124</v>
-      </c>
-      <c r="E136" t="s">
-        <v>281</v>
-      </c>
-      <c r="F136" t="s">
-        <v>243</v>
-      </c>
-      <c r="G136" t="s">
-        <v>124</v>
-      </c>
-      <c r="H136" t="s">
-        <v>228</v>
-      </c>
-      <c r="I136" t="s">
-        <v>243</v>
-      </c>
-      <c r="J136" t="s">
-        <v>124</v>
-      </c>
-      <c r="K136" t="s">
+      <c r="R136" t="s">
+        <v>89</v>
+      </c>
+      <c r="S136" t="s">
+        <v>138</v>
+      </c>
+      <c r="T136" t="s">
         <v>92</v>
       </c>
-      <c r="L136" t="s">
-        <v>243</v>
-      </c>
-      <c r="M136" t="s">
-        <v>118</v>
-      </c>
-      <c r="N136" t="s">
-        <v>282</v>
-      </c>
-      <c r="O136" t="s">
-        <v>243</v>
-      </c>
-      <c r="P136" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q136" t="s">
-        <v>283</v>
-      </c>
-      <c r="R136" t="s">
-        <v>243</v>
-      </c>
-      <c r="S136" t="s">
-        <v>121</v>
+      <c r="U136" t="s">
+        <v>89</v>
+      </c>
+      <c r="V136" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="137">
@@ -14359,7 +14359,7 @@
         <v>114</v>
       </c>
       <c r="H154" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I154" t="s">
         <v>89</v>
@@ -14400,58 +14400,85 @@
         <v>607</v>
       </c>
       <c r="B155" t="s">
+        <v>136</v>
+      </c>
+      <c r="C155" t="s">
+        <v>89</v>
+      </c>
+      <c r="D155" t="s">
+        <v>124</v>
+      </c>
+      <c r="E155" t="s">
+        <v>141</v>
+      </c>
+      <c r="F155" t="s">
+        <v>89</v>
+      </c>
+      <c r="G155" t="s">
+        <v>124</v>
+      </c>
+      <c r="H155" t="s">
         <v>88</v>
       </c>
-      <c r="C155" t="s">
-        <v>89</v>
-      </c>
-      <c r="D155" t="s">
-        <v>162</v>
-      </c>
-      <c r="E155" t="s">
-        <v>583</v>
-      </c>
-      <c r="F155" t="s">
-        <v>89</v>
-      </c>
-      <c r="G155" t="s">
-        <v>126</v>
-      </c>
-      <c r="H155" t="s">
-        <v>584</v>
-      </c>
       <c r="I155" t="s">
         <v>89</v>
       </c>
       <c r="J155" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K155" t="s">
-        <v>92</v>
+        <v>404</v>
       </c>
       <c r="L155" t="s">
         <v>89</v>
       </c>
       <c r="M155" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N155" t="s">
-        <v>585</v>
+        <v>405</v>
       </c>
       <c r="O155" t="s">
         <v>89</v>
       </c>
       <c r="P155" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="Q155" t="s">
+        <v>406</v>
+      </c>
+      <c r="R155" t="s">
+        <v>89</v>
+      </c>
+      <c r="S155" t="s">
+        <v>289</v>
+      </c>
+      <c r="T155" t="s">
+        <v>407</v>
+      </c>
+      <c r="U155" t="s">
+        <v>89</v>
+      </c>
+      <c r="V155" t="s">
+        <v>289</v>
+      </c>
+      <c r="W155" t="s">
+        <v>377</v>
+      </c>
+      <c r="X155" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y155" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z155" t="s">
         <v>120</v>
       </c>
-      <c r="R155" t="s">
-        <v>89</v>
-      </c>
-      <c r="S155" t="s">
-        <v>110</v>
+      <c r="AA155" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB155" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="156">
@@ -14459,85 +14486,58 @@
         <v>608</v>
       </c>
       <c r="B156" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="C156" t="s">
         <v>89</v>
       </c>
       <c r="D156" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="E156" t="s">
-        <v>141</v>
+        <v>583</v>
       </c>
       <c r="F156" t="s">
         <v>89</v>
       </c>
       <c r="G156" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H156" t="s">
-        <v>88</v>
+        <v>584</v>
       </c>
       <c r="I156" t="s">
         <v>89</v>
       </c>
       <c r="J156" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K156" t="s">
-        <v>404</v>
+        <v>92</v>
       </c>
       <c r="L156" t="s">
         <v>89</v>
       </c>
       <c r="M156" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="N156" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="O156" t="s">
         <v>89</v>
       </c>
       <c r="P156" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="Q156" t="s">
-        <v>406</v>
+        <v>120</v>
       </c>
       <c r="R156" t="s">
         <v>89</v>
       </c>
       <c r="S156" t="s">
-        <v>289</v>
-      </c>
-      <c r="T156" t="s">
-        <v>407</v>
-      </c>
-      <c r="U156" t="s">
-        <v>89</v>
-      </c>
-      <c r="V156" t="s">
-        <v>289</v>
-      </c>
-      <c r="W156" t="s">
-        <v>377</v>
-      </c>
-      <c r="X156" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y156" t="s">
-        <v>289</v>
-      </c>
-      <c r="Z156" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA156" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB156" t="s">
-        <v>289</v>
+        <v>110</v>
       </c>
     </row>
     <row r="157">
@@ -14545,7 +14545,7 @@
         <v>609</v>
       </c>
       <c r="B157" t="s">
-        <v>219</v>
+        <v>123</v>
       </c>
       <c r="C157" t="s">
         <v>89</v>
@@ -14554,7 +14554,7 @@
         <v>124</v>
       </c>
       <c r="E157" t="s">
-        <v>220</v>
+        <v>113</v>
       </c>
       <c r="F157" t="s">
         <v>89</v>
@@ -14572,39 +14572,48 @@
         <v>124</v>
       </c>
       <c r="K157" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="L157" t="s">
         <v>89</v>
       </c>
       <c r="M157" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="N157" t="s">
-        <v>214</v>
+        <v>127</v>
       </c>
       <c r="O157" t="s">
         <v>89</v>
       </c>
       <c r="P157" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="Q157" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="R157" t="s">
         <v>89</v>
       </c>
       <c r="S157" t="s">
+        <v>126</v>
+      </c>
+      <c r="T157" t="s">
+        <v>128</v>
+      </c>
+      <c r="U157" t="s">
+        <v>89</v>
+      </c>
+      <c r="V157" t="s">
         <v>110</v>
       </c>
-      <c r="T157" t="s">
+      <c r="W157" t="s">
         <v>120</v>
       </c>
-      <c r="U157" t="s">
-        <v>89</v>
-      </c>
-      <c r="V157" t="s">
+      <c r="X157" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y157" t="s">
         <v>110</v>
       </c>
     </row>
@@ -14613,7 +14622,7 @@
         <v>610</v>
       </c>
       <c r="B158" t="s">
-        <v>123</v>
+        <v>219</v>
       </c>
       <c r="C158" t="s">
         <v>89</v>
@@ -14622,7 +14631,7 @@
         <v>124</v>
       </c>
       <c r="E158" t="s">
-        <v>113</v>
+        <v>220</v>
       </c>
       <c r="F158" t="s">
         <v>89</v>
@@ -14640,48 +14649,39 @@
         <v>124</v>
       </c>
       <c r="K158" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="L158" t="s">
         <v>89</v>
       </c>
       <c r="M158" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N158" t="s">
-        <v>127</v>
+        <v>214</v>
       </c>
       <c r="O158" t="s">
         <v>89</v>
       </c>
       <c r="P158" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="Q158" t="s">
-        <v>92</v>
+        <v>224</v>
       </c>
       <c r="R158" t="s">
         <v>89</v>
       </c>
       <c r="S158" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="T158" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="U158" t="s">
         <v>89</v>
       </c>
       <c r="V158" t="s">
-        <v>110</v>
-      </c>
-      <c r="W158" t="s">
-        <v>120</v>
-      </c>
-      <c r="X158" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y158" t="s">
         <v>110</v>
       </c>
     </row>
@@ -14767,31 +14767,76 @@
         <v>612</v>
       </c>
       <c r="B160" t="s">
+        <v>136</v>
+      </c>
+      <c r="C160" t="s">
+        <v>571</v>
+      </c>
+      <c r="D160" t="s">
+        <v>124</v>
+      </c>
+      <c r="E160" t="s">
+        <v>141</v>
+      </c>
+      <c r="F160" t="s">
+        <v>571</v>
+      </c>
+      <c r="G160" t="s">
+        <v>124</v>
+      </c>
+      <c r="H160" t="s">
         <v>88</v>
       </c>
-      <c r="C160" t="s">
-        <v>271</v>
-      </c>
-      <c r="D160" t="s">
-        <v>162</v>
-      </c>
-      <c r="E160" t="s">
-        <v>92</v>
-      </c>
-      <c r="F160" t="s">
-        <v>271</v>
-      </c>
-      <c r="G160" t="s">
-        <v>168</v>
-      </c>
-      <c r="H160" t="s">
+      <c r="I160" t="s">
+        <v>571</v>
+      </c>
+      <c r="J160" t="s">
+        <v>124</v>
+      </c>
+      <c r="K160" t="s">
+        <v>404</v>
+      </c>
+      <c r="L160" t="s">
+        <v>571</v>
+      </c>
+      <c r="M160" t="s">
+        <v>118</v>
+      </c>
+      <c r="N160" t="s">
+        <v>405</v>
+      </c>
+      <c r="O160" t="s">
+        <v>571</v>
+      </c>
+      <c r="P160" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>308</v>
+      </c>
+      <c r="R160" t="s">
+        <v>571</v>
+      </c>
+      <c r="S160" t="s">
+        <v>82</v>
+      </c>
+      <c r="T160" t="s">
+        <v>572</v>
+      </c>
+      <c r="U160" t="s">
+        <v>571</v>
+      </c>
+      <c r="V160" t="s">
+        <v>82</v>
+      </c>
+      <c r="W160" t="s">
         <v>120</v>
       </c>
-      <c r="I160" t="s">
-        <v>271</v>
-      </c>
-      <c r="J160" t="s">
-        <v>121</v>
+      <c r="X160" t="s">
+        <v>571</v>
+      </c>
+      <c r="Y160" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="161">
@@ -14799,76 +14844,31 @@
         <v>613</v>
       </c>
       <c r="B161" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="C161" t="s">
-        <v>571</v>
+        <v>271</v>
       </c>
       <c r="D161" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="E161" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="F161" t="s">
-        <v>571</v>
+        <v>271</v>
       </c>
       <c r="G161" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="H161" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="I161" t="s">
-        <v>571</v>
+        <v>271</v>
       </c>
       <c r="J161" t="s">
-        <v>124</v>
-      </c>
-      <c r="K161" t="s">
-        <v>404</v>
-      </c>
-      <c r="L161" t="s">
-        <v>571</v>
-      </c>
-      <c r="M161" t="s">
-        <v>118</v>
-      </c>
-      <c r="N161" t="s">
-        <v>405</v>
-      </c>
-      <c r="O161" t="s">
-        <v>571</v>
-      </c>
-      <c r="P161" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q161" t="s">
-        <v>308</v>
-      </c>
-      <c r="R161" t="s">
-        <v>571</v>
-      </c>
-      <c r="S161" t="s">
-        <v>82</v>
-      </c>
-      <c r="T161" t="s">
-        <v>572</v>
-      </c>
-      <c r="U161" t="s">
-        <v>571</v>
-      </c>
-      <c r="V161" t="s">
-        <v>82</v>
-      </c>
-      <c r="W161" t="s">
-        <v>120</v>
-      </c>
-      <c r="X161" t="s">
-        <v>571</v>
-      </c>
-      <c r="Y161" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
     </row>
     <row r="162">
@@ -15016,7 +15016,7 @@
         <v>114</v>
       </c>
       <c r="K163" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L163" t="s">
         <v>89</v>
@@ -15533,58 +15533,76 @@
         <v>635</v>
       </c>
       <c r="B171" t="s">
-        <v>143</v>
+        <v>242</v>
       </c>
       <c r="C171" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D171" t="s">
-        <v>124</v>
+        <v>243</v>
       </c>
       <c r="E171" t="s">
-        <v>450</v>
+        <v>244</v>
       </c>
       <c r="F171" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="G171" t="s">
-        <v>124</v>
+        <v>243</v>
       </c>
       <c r="H171" t="s">
-        <v>123</v>
+        <v>245</v>
       </c>
       <c r="I171" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="J171" t="s">
-        <v>124</v>
+        <v>243</v>
       </c>
       <c r="K171" t="s">
-        <v>535</v>
+        <v>246</v>
       </c>
       <c r="L171" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="M171" t="s">
-        <v>118</v>
+        <v>243</v>
       </c>
       <c r="N171" t="s">
-        <v>445</v>
+        <v>247</v>
       </c>
       <c r="O171" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="P171" t="s">
-        <v>118</v>
+        <v>243</v>
       </c>
       <c r="Q171" t="s">
-        <v>317</v>
+        <v>248</v>
       </c>
       <c r="R171" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="S171" t="s">
-        <v>121</v>
+        <v>243</v>
+      </c>
+      <c r="T171" t="s">
+        <v>249</v>
+      </c>
+      <c r="U171" t="s">
+        <v>99</v>
+      </c>
+      <c r="V171" t="s">
+        <v>243</v>
+      </c>
+      <c r="W171" t="s">
+        <v>250</v>
+      </c>
+      <c r="X171" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y171" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="172">
@@ -15592,76 +15610,58 @@
         <v>636</v>
       </c>
       <c r="B172" t="s">
-        <v>242</v>
+        <v>143</v>
       </c>
       <c r="C172" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="D172" t="s">
-        <v>243</v>
+        <v>124</v>
       </c>
       <c r="E172" t="s">
-        <v>244</v>
+        <v>450</v>
       </c>
       <c r="F172" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="G172" t="s">
-        <v>243</v>
+        <v>124</v>
       </c>
       <c r="H172" t="s">
-        <v>245</v>
+        <v>123</v>
       </c>
       <c r="I172" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="J172" t="s">
-        <v>243</v>
+        <v>124</v>
       </c>
       <c r="K172" t="s">
-        <v>246</v>
+        <v>535</v>
       </c>
       <c r="L172" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="M172" t="s">
-        <v>243</v>
+        <v>118</v>
       </c>
       <c r="N172" t="s">
-        <v>247</v>
+        <v>445</v>
       </c>
       <c r="O172" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="P172" t="s">
-        <v>243</v>
+        <v>118</v>
       </c>
       <c r="Q172" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
       <c r="R172" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="S172" t="s">
-        <v>243</v>
-      </c>
-      <c r="T172" t="s">
-        <v>249</v>
-      </c>
-      <c r="U172" t="s">
-        <v>99</v>
-      </c>
-      <c r="V172" t="s">
-        <v>243</v>
-      </c>
-      <c r="W172" t="s">
-        <v>250</v>
-      </c>
-      <c r="X172" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y172" t="s">
-        <v>243</v>
+        <v>121</v>
       </c>
     </row>
     <row r="173">
@@ -16269,7 +16269,7 @@
         <v>63</v>
       </c>
       <c r="D182" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E182" t="s">
         <v>652</v>
@@ -16278,7 +16278,7 @@
         <v>63</v>
       </c>
       <c r="G182" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H182" t="s">
         <v>653</v>
@@ -16287,7 +16287,7 @@
         <v>63</v>
       </c>
       <c r="J182" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K182" t="s">
         <v>654</v>
@@ -16296,7 +16296,7 @@
         <v>63</v>
       </c>
       <c r="M182" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="183">
@@ -16752,7 +16752,7 @@
         <v>103</v>
       </c>
       <c r="AC188" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AD188" t="s">
         <v>273</v>
@@ -17006,82 +17006,82 @@
         <v>671</v>
       </c>
       <c r="B192" t="s">
+        <v>521</v>
+      </c>
+      <c r="C192" t="s">
+        <v>522</v>
+      </c>
+      <c r="D192" t="s">
         <v>523</v>
       </c>
-      <c r="C192" t="s">
+      <c r="E192" t="s">
         <v>524</v>
       </c>
-      <c r="D192" t="s">
+      <c r="F192" t="s">
+        <v>522</v>
+      </c>
+      <c r="G192" t="s">
+        <v>523</v>
+      </c>
+      <c r="H192" t="s">
         <v>525</v>
       </c>
-      <c r="E192" t="s">
+      <c r="I192" t="s">
+        <v>522</v>
+      </c>
+      <c r="J192" t="s">
+        <v>523</v>
+      </c>
+      <c r="K192" t="s">
         <v>526</v>
       </c>
-      <c r="F192" t="s">
-        <v>524</v>
-      </c>
-      <c r="G192" t="s">
-        <v>525</v>
-      </c>
-      <c r="H192" t="s">
+      <c r="L192" t="s">
+        <v>522</v>
+      </c>
+      <c r="M192" t="s">
+        <v>523</v>
+      </c>
+      <c r="N192" t="s">
         <v>527</v>
       </c>
-      <c r="I192" t="s">
-        <v>524</v>
-      </c>
-      <c r="J192" t="s">
-        <v>525</v>
-      </c>
-      <c r="K192" t="s">
+      <c r="O192" t="s">
+        <v>522</v>
+      </c>
+      <c r="P192" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q192" t="s">
         <v>528</v>
       </c>
-      <c r="L192" t="s">
-        <v>524</v>
-      </c>
-      <c r="M192" t="s">
-        <v>525</v>
-      </c>
-      <c r="N192" t="s">
+      <c r="R192" t="s">
+        <v>522</v>
+      </c>
+      <c r="S192" t="s">
+        <v>523</v>
+      </c>
+      <c r="T192" t="s">
         <v>529</v>
       </c>
-      <c r="O192" t="s">
-        <v>524</v>
-      </c>
-      <c r="P192" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q192" t="s">
-        <v>530</v>
-      </c>
-      <c r="R192" t="s">
-        <v>524</v>
-      </c>
-      <c r="S192" t="s">
-        <v>525</v>
-      </c>
-      <c r="T192" t="s">
-        <v>531</v>
-      </c>
       <c r="U192" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="V192" t="s">
         <v>316</v>
       </c>
       <c r="W192" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="X192" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="Y192" t="s">
         <v>316</v>
       </c>
       <c r="Z192" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AA192" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AB192" t="s">
         <v>316</v>
@@ -17350,7 +17350,7 @@
         <v>114</v>
       </c>
       <c r="K196" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L196" t="s">
         <v>89</v>
@@ -17391,112 +17391,76 @@
         <v>691</v>
       </c>
       <c r="B197" t="s">
-        <v>123</v>
+        <v>242</v>
       </c>
       <c r="C197" t="s">
-        <v>273</v>
+        <v>99</v>
       </c>
       <c r="D197" t="s">
-        <v>124</v>
+        <v>243</v>
       </c>
       <c r="E197" t="s">
-        <v>113</v>
+        <v>244</v>
       </c>
       <c r="F197" t="s">
-        <v>273</v>
+        <v>99</v>
       </c>
       <c r="G197" t="s">
-        <v>124</v>
+        <v>243</v>
       </c>
       <c r="H197" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="I197" t="s">
-        <v>273</v>
+        <v>99</v>
       </c>
       <c r="J197" t="s">
-        <v>124</v>
+        <v>243</v>
       </c>
       <c r="K197" t="s">
-        <v>583</v>
+        <v>246</v>
       </c>
       <c r="L197" t="s">
-        <v>273</v>
+        <v>99</v>
       </c>
       <c r="M197" t="s">
-        <v>103</v>
+        <v>243</v>
       </c>
       <c r="N197" t="s">
-        <v>584</v>
+        <v>247</v>
       </c>
       <c r="O197" t="s">
-        <v>273</v>
+        <v>99</v>
       </c>
       <c r="P197" t="s">
-        <v>103</v>
+        <v>243</v>
       </c>
       <c r="Q197" t="s">
-        <v>125</v>
+        <v>248</v>
       </c>
       <c r="R197" t="s">
-        <v>273</v>
+        <v>99</v>
       </c>
       <c r="S197" t="s">
-        <v>103</v>
+        <v>243</v>
       </c>
       <c r="T197" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="U197" t="s">
-        <v>273</v>
+        <v>99</v>
       </c>
       <c r="V197" t="s">
-        <v>103</v>
+        <v>243</v>
       </c>
       <c r="W197" t="s">
-        <v>102</v>
+        <v>250</v>
       </c>
       <c r="X197" t="s">
-        <v>273</v>
+        <v>99</v>
       </c>
       <c r="Y197" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z197" t="s">
-        <v>266</v>
-      </c>
-      <c r="AA197" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB197" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC197" t="s">
-        <v>585</v>
-      </c>
-      <c r="AD197" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE197" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF197" t="s">
-        <v>267</v>
-      </c>
-      <c r="AG197" t="s">
-        <v>273</v>
-      </c>
-      <c r="AH197" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI197" t="s">
-        <v>268</v>
-      </c>
-      <c r="AJ197" t="s">
-        <v>273</v>
-      </c>
-      <c r="AK197" t="s">
-        <v>82</v>
+        <v>243</v>
       </c>
     </row>
     <row r="198">
@@ -17504,76 +17468,112 @@
         <v>692</v>
       </c>
       <c r="B198" t="s">
-        <v>242</v>
+        <v>123</v>
       </c>
       <c r="C198" t="s">
-        <v>99</v>
+        <v>273</v>
       </c>
       <c r="D198" t="s">
-        <v>243</v>
+        <v>124</v>
       </c>
       <c r="E198" t="s">
-        <v>244</v>
+        <v>113</v>
       </c>
       <c r="F198" t="s">
-        <v>99</v>
+        <v>273</v>
       </c>
       <c r="G198" t="s">
-        <v>243</v>
+        <v>124</v>
       </c>
       <c r="H198" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="I198" t="s">
-        <v>99</v>
+        <v>273</v>
       </c>
       <c r="J198" t="s">
-        <v>243</v>
+        <v>124</v>
       </c>
       <c r="K198" t="s">
-        <v>246</v>
+        <v>583</v>
       </c>
       <c r="L198" t="s">
-        <v>99</v>
+        <v>273</v>
       </c>
       <c r="M198" t="s">
-        <v>243</v>
+        <v>103</v>
       </c>
       <c r="N198" t="s">
-        <v>247</v>
+        <v>584</v>
       </c>
       <c r="O198" t="s">
-        <v>99</v>
+        <v>273</v>
       </c>
       <c r="P198" t="s">
-        <v>243</v>
+        <v>103</v>
       </c>
       <c r="Q198" t="s">
-        <v>248</v>
+        <v>125</v>
       </c>
       <c r="R198" t="s">
-        <v>99</v>
+        <v>273</v>
       </c>
       <c r="S198" t="s">
-        <v>243</v>
+        <v>103</v>
       </c>
       <c r="T198" t="s">
-        <v>249</v>
+        <v>127</v>
       </c>
       <c r="U198" t="s">
-        <v>99</v>
+        <v>273</v>
       </c>
       <c r="V198" t="s">
-        <v>243</v>
+        <v>103</v>
       </c>
       <c r="W198" t="s">
-        <v>250</v>
+        <v>102</v>
       </c>
       <c r="X198" t="s">
-        <v>99</v>
+        <v>273</v>
       </c>
       <c r="Y198" t="s">
-        <v>243</v>
+        <v>103</v>
+      </c>
+      <c r="Z198" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA198" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB198" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC198" t="s">
+        <v>585</v>
+      </c>
+      <c r="AD198" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE198" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF198" t="s">
+        <v>267</v>
+      </c>
+      <c r="AG198" t="s">
+        <v>273</v>
+      </c>
+      <c r="AH198" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI198" t="s">
+        <v>268</v>
+      </c>
+      <c r="AJ198" t="s">
+        <v>273</v>
+      </c>
+      <c r="AK198" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="199">
@@ -17856,7 +17856,7 @@
         <v>502</v>
       </c>
       <c r="C203" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D203" t="s">
         <v>314</v>
@@ -17865,7 +17865,7 @@
         <v>503</v>
       </c>
       <c r="F203" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G203" t="s">
         <v>314</v>
@@ -17874,7 +17874,7 @@
         <v>504</v>
       </c>
       <c r="I203" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J203" t="s">
         <v>314</v>
@@ -17883,7 +17883,7 @@
         <v>505</v>
       </c>
       <c r="L203" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M203" t="s">
         <v>506</v>
@@ -17892,7 +17892,7 @@
         <v>507</v>
       </c>
       <c r="O203" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P203" t="s">
         <v>506</v>
@@ -17901,7 +17901,7 @@
         <v>508</v>
       </c>
       <c r="R203" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="S203" t="s">
         <v>506</v>
@@ -17910,7 +17910,7 @@
         <v>509</v>
       </c>
       <c r="U203" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="V203" t="s">
         <v>506</v>
@@ -17919,7 +17919,7 @@
         <v>510</v>
       </c>
       <c r="X203" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Y203" t="s">
         <v>506</v>
@@ -18326,7 +18326,7 @@
         <v>306</v>
       </c>
       <c r="D210" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E210" t="s">
         <v>307</v>
@@ -18335,7 +18335,7 @@
         <v>306</v>
       </c>
       <c r="G210" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H210" t="s">
         <v>308</v>
@@ -18344,7 +18344,7 @@
         <v>306</v>
       </c>
       <c r="J210" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K210" t="s">
         <v>120</v>
@@ -18353,7 +18353,7 @@
         <v>306</v>
       </c>
       <c r="M210" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="211">
@@ -18585,7 +18585,7 @@
         <v>306</v>
       </c>
       <c r="D215" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E215" t="s">
         <v>307</v>
@@ -18594,7 +18594,7 @@
         <v>306</v>
       </c>
       <c r="G215" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H215" t="s">
         <v>308</v>
@@ -18603,7 +18603,7 @@
         <v>306</v>
       </c>
       <c r="J215" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K215" t="s">
         <v>120</v>
@@ -18612,7 +18612,7 @@
         <v>306</v>
       </c>
       <c r="M215" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N215" t="s">
         <v>115</v>
@@ -19104,7 +19104,7 @@
         <v>114</v>
       </c>
       <c r="K221" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L221" t="s">
         <v>89</v>
@@ -19216,72 +19216,90 @@
         <v>88</v>
       </c>
       <c r="C223" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="D223" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="E223" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F223" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="G223" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="H223" t="s">
-        <v>102</v>
+        <v>212</v>
       </c>
       <c r="I223" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="J223" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="K223" t="s">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="L223" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="M223" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="N223" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="O223" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="P223" t="s">
-        <v>152</v>
+        <v>215</v>
       </c>
       <c r="Q223" t="s">
+        <v>104</v>
+      </c>
+      <c r="R223" t="s">
+        <v>89</v>
+      </c>
+      <c r="S223" t="s">
+        <v>215</v>
+      </c>
+      <c r="T223" t="s">
+        <v>106</v>
+      </c>
+      <c r="U223" t="s">
+        <v>89</v>
+      </c>
+      <c r="V223" t="s">
+        <v>215</v>
+      </c>
+      <c r="W223" t="s">
         <v>92</v>
       </c>
-      <c r="R223" t="s">
-        <v>63</v>
-      </c>
-      <c r="S223" t="s">
-        <v>152</v>
-      </c>
-      <c r="T223" t="s">
-        <v>224</v>
-      </c>
-      <c r="U223" t="s">
-        <v>63</v>
-      </c>
-      <c r="V223" t="s">
+      <c r="X223" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y223" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z223" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA223" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB223" t="s">
         <v>110</v>
       </c>
-      <c r="W223" t="s">
+      <c r="AC223" t="s">
         <v>120</v>
       </c>
-      <c r="X223" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y223" t="s">
+      <c r="AD223" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE223" t="s">
         <v>110</v>
       </c>
     </row>
@@ -19290,67 +19308,76 @@
         <v>738</v>
       </c>
       <c r="B224" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C224" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="D224" t="s">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="E224" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="F224" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="G224" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="H224" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="I224" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="J224" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="K224" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="L224" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="M224" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="N224" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="O224" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="P224" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="Q224" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="R224" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="S224" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="T224" t="s">
+        <v>224</v>
+      </c>
+      <c r="U224" t="s">
+        <v>63</v>
+      </c>
+      <c r="V224" t="s">
+        <v>110</v>
+      </c>
+      <c r="W224" t="s">
         <v>120</v>
       </c>
-      <c r="U224" t="s">
-        <v>89</v>
-      </c>
-      <c r="V224" t="s">
-        <v>121</v>
+      <c r="X224" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y224" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="225">
@@ -19358,7 +19385,7 @@
         <v>739</v>
       </c>
       <c r="B225" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="C225" t="s">
         <v>89</v>
@@ -19367,7 +19394,7 @@
         <v>114</v>
       </c>
       <c r="E225" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="F225" t="s">
         <v>89</v>
@@ -19376,7 +19403,7 @@
         <v>114</v>
       </c>
       <c r="H225" t="s">
-        <v>212</v>
+        <v>116</v>
       </c>
       <c r="I225" t="s">
         <v>89</v>
@@ -19385,7 +19412,7 @@
         <v>114</v>
       </c>
       <c r="K225" t="s">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="L225" t="s">
         <v>89</v>
@@ -19394,58 +19421,31 @@
         <v>114</v>
       </c>
       <c r="N225" t="s">
-        <v>214</v>
+        <v>105</v>
       </c>
       <c r="O225" t="s">
         <v>89</v>
       </c>
       <c r="P225" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="Q225" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="R225" t="s">
         <v>89</v>
       </c>
       <c r="S225" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="T225" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="U225" t="s">
         <v>89</v>
       </c>
       <c r="V225" t="s">
-        <v>215</v>
-      </c>
-      <c r="W225" t="s">
-        <v>92</v>
-      </c>
-      <c r="X225" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y225" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z225" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA225" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB225" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC225" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD225" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE225" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="226">
@@ -19453,7 +19453,7 @@
         <v>740</v>
       </c>
       <c r="B226" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="C226" t="s">
         <v>89</v>
@@ -19462,7 +19462,7 @@
         <v>114</v>
       </c>
       <c r="E226" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="F226" t="s">
         <v>89</v>
@@ -19471,7 +19471,7 @@
         <v>114</v>
       </c>
       <c r="H226" t="s">
-        <v>212</v>
+        <v>116</v>
       </c>
       <c r="I226" t="s">
         <v>89</v>
@@ -19480,7 +19480,7 @@
         <v>114</v>
       </c>
       <c r="K226" t="s">
-        <v>213</v>
+        <v>117</v>
       </c>
       <c r="L226" t="s">
         <v>89</v>
@@ -19489,75 +19489,39 @@
         <v>114</v>
       </c>
       <c r="N226" t="s">
-        <v>214</v>
+        <v>105</v>
       </c>
       <c r="O226" t="s">
         <v>89</v>
       </c>
       <c r="P226" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="Q226" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="R226" t="s">
         <v>89</v>
       </c>
       <c r="S226" t="s">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="T226" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="U226" t="s">
         <v>89</v>
       </c>
       <c r="V226" t="s">
-        <v>215</v>
-      </c>
-      <c r="W226" t="s">
-        <v>92</v>
-      </c>
-      <c r="X226" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y226" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z226" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA226" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB226" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC226" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD226" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE226" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF226" t="s">
-        <v>741</v>
-      </c>
-      <c r="AG226" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH226" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B227" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C227" t="s">
         <v>89</v>
@@ -19566,7 +19530,7 @@
         <v>114</v>
       </c>
       <c r="E227" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="F227" t="s">
         <v>89</v>
@@ -19575,7 +19539,7 @@
         <v>114</v>
       </c>
       <c r="H227" t="s">
-        <v>116</v>
+        <v>212</v>
       </c>
       <c r="I227" t="s">
         <v>89</v>
@@ -19584,7 +19548,7 @@
         <v>114</v>
       </c>
       <c r="K227" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="L227" t="s">
         <v>89</v>
@@ -19593,31 +19557,67 @@
         <v>114</v>
       </c>
       <c r="N227" t="s">
-        <v>105</v>
+        <v>214</v>
       </c>
       <c r="O227" t="s">
         <v>89</v>
       </c>
       <c r="P227" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q227" t="s">
+        <v>104</v>
+      </c>
+      <c r="R227" t="s">
+        <v>89</v>
+      </c>
+      <c r="S227" t="s">
+        <v>215</v>
+      </c>
+      <c r="T227" t="s">
+        <v>106</v>
+      </c>
+      <c r="U227" t="s">
+        <v>89</v>
+      </c>
+      <c r="V227" t="s">
+        <v>215</v>
+      </c>
+      <c r="W227" t="s">
+        <v>92</v>
+      </c>
+      <c r="X227" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y227" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z227" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA227" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB227" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC227" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD227" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE227" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF227" t="s">
+        <v>742</v>
+      </c>
+      <c r="AG227" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH227" t="s">
         <v>118</v>
-      </c>
-      <c r="Q227" t="s">
-        <v>119</v>
-      </c>
-      <c r="R227" t="s">
-        <v>89</v>
-      </c>
-      <c r="S227" t="s">
-        <v>118</v>
-      </c>
-      <c r="T227" t="s">
-        <v>120</v>
-      </c>
-      <c r="U227" t="s">
-        <v>89</v>
-      </c>
-      <c r="V227" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="228">
@@ -19983,7 +19983,7 @@
         <v>100</v>
       </c>
       <c r="H233" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I233" t="s">
         <v>63</v>
@@ -20051,7 +20051,7 @@
         <v>126</v>
       </c>
       <c r="Q234" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R234" t="s">
         <v>271</v>
@@ -20071,7 +20071,7 @@
         <v>306</v>
       </c>
       <c r="D235" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E235" t="s">
         <v>307</v>
@@ -20080,7 +20080,7 @@
         <v>306</v>
       </c>
       <c r="G235" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H235" t="s">
         <v>308</v>
@@ -20089,7 +20089,7 @@
         <v>306</v>
       </c>
       <c r="J235" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K235" t="s">
         <v>120</v>
@@ -20098,7 +20098,7 @@
         <v>306</v>
       </c>
       <c r="M235" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="236">
@@ -20735,7 +20735,7 @@
         <v>118</v>
       </c>
       <c r="K243" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="L243" t="s">
         <v>89</v>
@@ -21161,171 +21161,171 @@
         <v>781</v>
       </c>
       <c r="B249" t="s">
-        <v>558</v>
+        <v>150</v>
       </c>
       <c r="C249" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D249" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="E249" t="s">
+        <v>113</v>
+      </c>
+      <c r="F249" t="s">
+        <v>99</v>
+      </c>
+      <c r="G249" t="s">
+        <v>124</v>
+      </c>
+      <c r="H249" t="s">
+        <v>144</v>
+      </c>
+      <c r="I249" t="s">
+        <v>99</v>
+      </c>
+      <c r="J249" t="s">
+        <v>124</v>
+      </c>
+      <c r="K249" t="s">
+        <v>151</v>
+      </c>
+      <c r="L249" t="s">
+        <v>99</v>
+      </c>
+      <c r="M249" t="s">
+        <v>152</v>
+      </c>
+      <c r="N249" t="s">
+        <v>153</v>
+      </c>
+      <c r="O249" t="s">
+        <v>99</v>
+      </c>
+      <c r="P249" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q249" t="s">
         <v>154</v>
       </c>
-      <c r="F249" t="s">
-        <v>89</v>
-      </c>
-      <c r="G249" t="s">
-        <v>118</v>
-      </c>
-      <c r="H249" t="s">
-        <v>92</v>
-      </c>
-      <c r="I249" t="s">
-        <v>89</v>
-      </c>
-      <c r="J249" t="s">
-        <v>118</v>
-      </c>
-      <c r="K249" t="s">
+      <c r="R249" t="s">
+        <v>99</v>
+      </c>
+      <c r="S249" t="s">
+        <v>152</v>
+      </c>
+      <c r="T249" t="s">
+        <v>155</v>
+      </c>
+      <c r="U249" t="s">
+        <v>99</v>
+      </c>
+      <c r="V249" t="s">
+        <v>152</v>
+      </c>
+      <c r="W249" t="s">
+        <v>156</v>
+      </c>
+      <c r="X249" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y249" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z249" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA249" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB249" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC249" t="s">
         <v>158</v>
       </c>
-      <c r="L249" t="s">
-        <v>89</v>
-      </c>
-      <c r="M249" t="s">
-        <v>289</v>
-      </c>
-      <c r="N249" t="s">
-        <v>782</v>
-      </c>
-      <c r="O249" t="s">
-        <v>89</v>
-      </c>
-      <c r="P249" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q249" t="s">
-        <v>120</v>
-      </c>
-      <c r="R249" t="s">
-        <v>89</v>
-      </c>
-      <c r="S249" t="s">
-        <v>289</v>
-      </c>
-      <c r="T249" t="s">
+      <c r="AD249" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE249" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF249" t="s">
         <v>159</v>
       </c>
-      <c r="U249" t="s">
-        <v>89</v>
-      </c>
-      <c r="V249" t="s">
-        <v>289</v>
+      <c r="AG249" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH249" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
+        <v>782</v>
+      </c>
+      <c r="B250" t="s">
+        <v>558</v>
+      </c>
+      <c r="C250" t="s">
+        <v>89</v>
+      </c>
+      <c r="D250" t="s">
+        <v>162</v>
+      </c>
+      <c r="E250" t="s">
+        <v>154</v>
+      </c>
+      <c r="F250" t="s">
+        <v>89</v>
+      </c>
+      <c r="G250" t="s">
+        <v>118</v>
+      </c>
+      <c r="H250" t="s">
+        <v>92</v>
+      </c>
+      <c r="I250" t="s">
+        <v>89</v>
+      </c>
+      <c r="J250" t="s">
+        <v>118</v>
+      </c>
+      <c r="K250" t="s">
+        <v>158</v>
+      </c>
+      <c r="L250" t="s">
+        <v>89</v>
+      </c>
+      <c r="M250" t="s">
+        <v>289</v>
+      </c>
+      <c r="N250" t="s">
         <v>783</v>
       </c>
-      <c r="B250" t="s">
-        <v>150</v>
-      </c>
-      <c r="C250" t="s">
-        <v>99</v>
-      </c>
-      <c r="D250" t="s">
-        <v>124</v>
-      </c>
-      <c r="E250" t="s">
-        <v>113</v>
-      </c>
-      <c r="F250" t="s">
-        <v>99</v>
-      </c>
-      <c r="G250" t="s">
-        <v>124</v>
-      </c>
-      <c r="H250" t="s">
-        <v>144</v>
-      </c>
-      <c r="I250" t="s">
-        <v>99</v>
-      </c>
-      <c r="J250" t="s">
-        <v>124</v>
-      </c>
-      <c r="K250" t="s">
-        <v>151</v>
-      </c>
-      <c r="L250" t="s">
-        <v>99</v>
-      </c>
-      <c r="M250" t="s">
-        <v>152</v>
-      </c>
-      <c r="N250" t="s">
-        <v>153</v>
-      </c>
       <c r="O250" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="P250" t="s">
-        <v>152</v>
+        <v>289</v>
       </c>
       <c r="Q250" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="R250" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="S250" t="s">
-        <v>152</v>
+        <v>289</v>
       </c>
       <c r="T250" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="U250" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="V250" t="s">
-        <v>152</v>
-      </c>
-      <c r="W250" t="s">
-        <v>156</v>
-      </c>
-      <c r="X250" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y250" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z250" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA250" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB250" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC250" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD250" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE250" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF250" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG250" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH250" t="s">
-        <v>82</v>
+        <v>289</v>
       </c>
     </row>
     <row r="251">
@@ -21369,7 +21369,7 @@
         <v>289</v>
       </c>
       <c r="N251" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="O251" t="s">
         <v>89</v>
@@ -21591,7 +21591,7 @@
         <v>791</v>
       </c>
       <c r="Q254" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="R254" t="s">
         <v>384</v>
@@ -22099,7 +22099,7 @@
         <v>802</v>
       </c>
       <c r="B262" t="s">
-        <v>123</v>
+        <v>450</v>
       </c>
       <c r="C262" t="s">
         <v>89</v>
@@ -22108,7 +22108,7 @@
         <v>100</v>
       </c>
       <c r="E262" t="s">
-        <v>213</v>
+        <v>88</v>
       </c>
       <c r="F262" t="s">
         <v>89</v>
@@ -22117,7 +22117,7 @@
         <v>100</v>
       </c>
       <c r="H262" t="s">
-        <v>535</v>
+        <v>402</v>
       </c>
       <c r="I262" t="s">
         <v>89</v>
@@ -22126,7 +22126,7 @@
         <v>118</v>
       </c>
       <c r="K262" t="s">
-        <v>294</v>
+        <v>709</v>
       </c>
       <c r="L262" t="s">
         <v>89</v>
@@ -22135,40 +22135,13 @@
         <v>118</v>
       </c>
       <c r="N262" t="s">
-        <v>536</v>
+        <v>120</v>
       </c>
       <c r="O262" t="s">
         <v>89</v>
       </c>
       <c r="P262" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q262" t="s">
-        <v>537</v>
-      </c>
-      <c r="R262" t="s">
-        <v>89</v>
-      </c>
-      <c r="S262" t="s">
-        <v>289</v>
-      </c>
-      <c r="T262" t="s">
-        <v>538</v>
-      </c>
-      <c r="U262" t="s">
-        <v>89</v>
-      </c>
-      <c r="V262" t="s">
-        <v>289</v>
-      </c>
-      <c r="W262" t="s">
-        <v>120</v>
-      </c>
-      <c r="X262" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y262" t="s">
-        <v>289</v>
+        <v>121</v>
       </c>
     </row>
     <row r="263">
@@ -22176,7 +22149,7 @@
         <v>803</v>
       </c>
       <c r="B263" t="s">
-        <v>450</v>
+        <v>123</v>
       </c>
       <c r="C263" t="s">
         <v>89</v>
@@ -22185,7 +22158,7 @@
         <v>100</v>
       </c>
       <c r="E263" t="s">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="F263" t="s">
         <v>89</v>
@@ -22194,7 +22167,7 @@
         <v>100</v>
       </c>
       <c r="H263" t="s">
-        <v>402</v>
+        <v>535</v>
       </c>
       <c r="I263" t="s">
         <v>89</v>
@@ -22203,7 +22176,7 @@
         <v>118</v>
       </c>
       <c r="K263" t="s">
-        <v>709</v>
+        <v>294</v>
       </c>
       <c r="L263" t="s">
         <v>89</v>
@@ -22212,13 +22185,40 @@
         <v>118</v>
       </c>
       <c r="N263" t="s">
+        <v>536</v>
+      </c>
+      <c r="O263" t="s">
+        <v>89</v>
+      </c>
+      <c r="P263" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q263" t="s">
+        <v>537</v>
+      </c>
+      <c r="R263" t="s">
+        <v>89</v>
+      </c>
+      <c r="S263" t="s">
+        <v>289</v>
+      </c>
+      <c r="T263" t="s">
+        <v>538</v>
+      </c>
+      <c r="U263" t="s">
+        <v>89</v>
+      </c>
+      <c r="V263" t="s">
+        <v>289</v>
+      </c>
+      <c r="W263" t="s">
         <v>120</v>
       </c>
-      <c r="O263" t="s">
-        <v>89</v>
-      </c>
-      <c r="P263" t="s">
-        <v>121</v>
+      <c r="X263" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y263" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="264">
@@ -22380,48 +22380,57 @@
         <v>806</v>
       </c>
       <c r="B266" t="s">
+        <v>88</v>
+      </c>
+      <c r="C266" t="s">
+        <v>89</v>
+      </c>
+      <c r="D266" t="s">
+        <v>124</v>
+      </c>
+      <c r="E266" t="s">
+        <v>212</v>
+      </c>
+      <c r="F266" t="s">
+        <v>89</v>
+      </c>
+      <c r="G266" t="s">
+        <v>124</v>
+      </c>
+      <c r="H266" t="s">
         <v>213</v>
       </c>
-      <c r="C266" t="s">
-        <v>89</v>
-      </c>
-      <c r="D266" t="s">
-        <v>162</v>
-      </c>
-      <c r="E266" t="s">
-        <v>741</v>
-      </c>
-      <c r="F266" t="s">
-        <v>89</v>
-      </c>
-      <c r="G266" t="s">
-        <v>118</v>
-      </c>
-      <c r="H266" t="s">
-        <v>106</v>
-      </c>
       <c r="I266" t="s">
         <v>89</v>
       </c>
       <c r="J266" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="K266" t="s">
+        <v>92</v>
+      </c>
+      <c r="L266" t="s">
+        <v>89</v>
+      </c>
+      <c r="M266" t="s">
+        <v>168</v>
+      </c>
+      <c r="N266" t="s">
         <v>216</v>
       </c>
-      <c r="L266" t="s">
-        <v>89</v>
-      </c>
-      <c r="M266" t="s">
+      <c r="O266" t="s">
+        <v>89</v>
+      </c>
+      <c r="P266" t="s">
         <v>110</v>
       </c>
-      <c r="N266" t="s">
+      <c r="Q266" t="s">
         <v>120</v>
       </c>
-      <c r="O266" t="s">
-        <v>89</v>
-      </c>
-      <c r="P266" t="s">
+      <c r="R266" t="s">
+        <v>89</v>
+      </c>
+      <c r="S266" t="s">
         <v>110</v>
       </c>
     </row>
@@ -22430,57 +22439,48 @@
         <v>807</v>
       </c>
       <c r="B267" t="s">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="C267" t="s">
         <v>89</v>
       </c>
       <c r="D267" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="E267" t="s">
-        <v>212</v>
+        <v>742</v>
       </c>
       <c r="F267" t="s">
         <v>89</v>
       </c>
       <c r="G267" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H267" t="s">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c r="I267" t="s">
         <v>89</v>
       </c>
       <c r="J267" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="K267" t="s">
-        <v>92</v>
+        <v>216</v>
       </c>
       <c r="L267" t="s">
         <v>89</v>
       </c>
       <c r="M267" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="N267" t="s">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="O267" t="s">
         <v>89</v>
       </c>
       <c r="P267" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q267" t="s">
-        <v>120</v>
-      </c>
-      <c r="R267" t="s">
-        <v>89</v>
-      </c>
-      <c r="S267" t="s">
         <v>110</v>
       </c>
     </row>
@@ -22693,7 +22693,7 @@
         <v>114</v>
       </c>
       <c r="H271" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I271" t="s">
         <v>89</v>
@@ -23292,7 +23292,7 @@
         <v>271</v>
       </c>
       <c r="D278" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E278" t="s">
         <v>830</v>
@@ -23301,7 +23301,7 @@
         <v>271</v>
       </c>
       <c r="G278" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H278" t="s">
         <v>831</v>
@@ -23310,7 +23310,7 @@
         <v>271</v>
       </c>
       <c r="J278" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K278" t="s">
         <v>832</v>
@@ -23319,7 +23319,7 @@
         <v>271</v>
       </c>
       <c r="M278" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="279">
@@ -23327,126 +23327,126 @@
         <v>833</v>
       </c>
       <c r="B279" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="C279" t="s">
-        <v>834</v>
+        <v>89</v>
       </c>
       <c r="D279" t="s">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="E279" t="s">
-        <v>236</v>
+        <v>163</v>
       </c>
       <c r="F279" t="s">
-        <v>834</v>
+        <v>89</v>
       </c>
       <c r="G279" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="H279" t="s">
-        <v>253</v>
+        <v>145</v>
       </c>
       <c r="I279" t="s">
-        <v>834</v>
+        <v>89</v>
       </c>
       <c r="J279" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="K279" t="s">
-        <v>254</v>
+        <v>164</v>
       </c>
       <c r="L279" t="s">
-        <v>834</v>
+        <v>89</v>
       </c>
       <c r="M279" t="s">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="N279" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="O279" t="s">
-        <v>834</v>
+        <v>89</v>
       </c>
       <c r="P279" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="Q279" t="s">
-        <v>535</v>
+        <v>166</v>
       </c>
       <c r="R279" t="s">
-        <v>834</v>
+        <v>89</v>
       </c>
       <c r="S279" t="s">
-        <v>93</v>
+        <v>82</v>
+      </c>
+      <c r="T279" t="s">
+        <v>120</v>
+      </c>
+      <c r="U279" t="s">
+        <v>89</v>
+      </c>
+      <c r="V279" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
+        <v>834</v>
+      </c>
+      <c r="B280" t="s">
+        <v>213</v>
+      </c>
+      <c r="C280" t="s">
         <v>835</v>
       </c>
-      <c r="B280" t="s">
-        <v>161</v>
-      </c>
-      <c r="C280" t="s">
-        <v>89</v>
-      </c>
       <c r="D280" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="E280" t="s">
-        <v>163</v>
+        <v>236</v>
       </c>
       <c r="F280" t="s">
-        <v>89</v>
+        <v>835</v>
       </c>
       <c r="G280" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="H280" t="s">
-        <v>145</v>
+        <v>253</v>
       </c>
       <c r="I280" t="s">
-        <v>89</v>
+        <v>835</v>
       </c>
       <c r="J280" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="K280" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="L280" t="s">
-        <v>89</v>
+        <v>835</v>
       </c>
       <c r="M280" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="N280" t="s">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="O280" t="s">
-        <v>89</v>
+        <v>835</v>
       </c>
       <c r="P280" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="Q280" t="s">
-        <v>166</v>
+        <v>535</v>
       </c>
       <c r="R280" t="s">
-        <v>89</v>
+        <v>835</v>
       </c>
       <c r="S280" t="s">
-        <v>82</v>
-      </c>
-      <c r="T280" t="s">
-        <v>120</v>
-      </c>
-      <c r="U280" t="s">
-        <v>89</v>
-      </c>
-      <c r="V280" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="281">
@@ -23735,58 +23735,49 @@
         <v>843</v>
       </c>
       <c r="B285" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="C285" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="D285" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="E285" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="F285" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="G285" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="H285" t="s">
-        <v>92</v>
+        <v>633</v>
       </c>
       <c r="I285" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="J285" t="s">
         <v>118</v>
       </c>
       <c r="K285" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="L285" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="M285" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="N285" t="s">
-        <v>185</v>
+        <v>537</v>
       </c>
       <c r="O285" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="P285" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q285" t="s">
-        <v>120</v>
-      </c>
-      <c r="R285" t="s">
-        <v>89</v>
-      </c>
-      <c r="S285" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
     </row>
     <row r="286">
@@ -23794,49 +23785,40 @@
         <v>844</v>
       </c>
       <c r="B286" t="s">
-        <v>236</v>
+        <v>388</v>
       </c>
       <c r="C286" t="s">
-        <v>63</v>
+        <v>273</v>
       </c>
       <c r="D286" t="s">
-        <v>100</v>
+        <v>297</v>
       </c>
       <c r="E286" t="s">
-        <v>213</v>
+        <v>389</v>
       </c>
       <c r="F286" t="s">
-        <v>63</v>
+        <v>273</v>
       </c>
       <c r="G286" t="s">
-        <v>100</v>
+        <v>297</v>
       </c>
       <c r="H286" t="s">
-        <v>633</v>
+        <v>390</v>
       </c>
       <c r="I286" t="s">
-        <v>63</v>
+        <v>273</v>
       </c>
       <c r="J286" t="s">
-        <v>118</v>
+        <v>297</v>
       </c>
       <c r="K286" t="s">
-        <v>154</v>
+        <v>391</v>
       </c>
       <c r="L286" t="s">
-        <v>63</v>
+        <v>273</v>
       </c>
       <c r="M286" t="s">
-        <v>118</v>
-      </c>
-      <c r="N286" t="s">
-        <v>537</v>
-      </c>
-      <c r="O286" t="s">
-        <v>63</v>
-      </c>
-      <c r="P286" t="s">
-        <v>121</v>
+        <v>297</v>
       </c>
     </row>
     <row r="287">
@@ -23844,40 +23826,58 @@
         <v>845</v>
       </c>
       <c r="B287" t="s">
-        <v>388</v>
+        <v>183</v>
       </c>
       <c r="C287" t="s">
-        <v>273</v>
+        <v>89</v>
       </c>
       <c r="D287" t="s">
-        <v>298</v>
+        <v>162</v>
       </c>
       <c r="E287" t="s">
-        <v>389</v>
+        <v>184</v>
       </c>
       <c r="F287" t="s">
-        <v>273</v>
+        <v>89</v>
       </c>
       <c r="G287" t="s">
-        <v>298</v>
+        <v>118</v>
       </c>
       <c r="H287" t="s">
-        <v>390</v>
+        <v>92</v>
       </c>
       <c r="I287" t="s">
-        <v>273</v>
+        <v>89</v>
       </c>
       <c r="J287" t="s">
-        <v>298</v>
+        <v>118</v>
       </c>
       <c r="K287" t="s">
-        <v>391</v>
+        <v>185</v>
       </c>
       <c r="L287" t="s">
-        <v>273</v>
+        <v>89</v>
       </c>
       <c r="M287" t="s">
-        <v>298</v>
+        <v>82</v>
+      </c>
+      <c r="N287" t="s">
+        <v>186</v>
+      </c>
+      <c r="O287" t="s">
+        <v>89</v>
+      </c>
+      <c r="P287" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q287" t="s">
+        <v>120</v>
+      </c>
+      <c r="R287" t="s">
+        <v>89</v>
+      </c>
+      <c r="S287" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="288">
@@ -24641,189 +24641,189 @@
         <v>857</v>
       </c>
       <c r="B297" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="C297" t="s">
-        <v>626</v>
+        <v>306</v>
       </c>
       <c r="D297" t="s">
-        <v>114</v>
+        <v>297</v>
       </c>
       <c r="E297" t="s">
-        <v>150</v>
+        <v>307</v>
       </c>
       <c r="F297" t="s">
-        <v>626</v>
+        <v>306</v>
       </c>
       <c r="G297" t="s">
-        <v>114</v>
+        <v>297</v>
       </c>
       <c r="H297" t="s">
-        <v>212</v>
+        <v>308</v>
       </c>
       <c r="I297" t="s">
-        <v>626</v>
+        <v>306</v>
       </c>
       <c r="J297" t="s">
-        <v>114</v>
+        <v>297</v>
       </c>
       <c r="K297" t="s">
-        <v>213</v>
+        <v>120</v>
       </c>
       <c r="L297" t="s">
-        <v>626</v>
+        <v>306</v>
       </c>
       <c r="M297" t="s">
-        <v>114</v>
-      </c>
-      <c r="N297" t="s">
-        <v>104</v>
-      </c>
-      <c r="O297" t="s">
-        <v>626</v>
-      </c>
-      <c r="P297" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q297" t="s">
-        <v>106</v>
-      </c>
-      <c r="R297" t="s">
-        <v>626</v>
-      </c>
-      <c r="S297" t="s">
-        <v>126</v>
-      </c>
-      <c r="T297" t="s">
-        <v>92</v>
-      </c>
-      <c r="U297" t="s">
-        <v>626</v>
-      </c>
-      <c r="V297" t="s">
-        <v>126</v>
-      </c>
-      <c r="W297" t="s">
-        <v>858</v>
-      </c>
-      <c r="X297" t="s">
-        <v>626</v>
-      </c>
-      <c r="Y297" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z297" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA297" t="s">
-        <v>626</v>
-      </c>
-      <c r="AB297" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC297" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD297" t="s">
-        <v>626</v>
-      </c>
-      <c r="AE297" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF297" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG297" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH297" t="s">
-        <v>162</v>
-      </c>
-      <c r="AI297" t="s">
-        <v>163</v>
-      </c>
-      <c r="AJ297" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK297" t="s">
-        <v>126</v>
-      </c>
-      <c r="AL297" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM297" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN297" t="s">
-        <v>126</v>
-      </c>
-      <c r="AO297" t="s">
-        <v>164</v>
-      </c>
-      <c r="AP297" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ297" t="s">
-        <v>126</v>
-      </c>
-      <c r="AR297" t="s">
-        <v>165</v>
-      </c>
-      <c r="AS297" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT297" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU297" t="s">
-        <v>166</v>
-      </c>
-      <c r="AV297" t="s">
-        <v>89</v>
-      </c>
-      <c r="AW297" t="s">
-        <v>82</v>
+        <v>297</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
+        <v>858</v>
+      </c>
+      <c r="B298" t="s">
+        <v>88</v>
+      </c>
+      <c r="C298" t="s">
+        <v>626</v>
+      </c>
+      <c r="D298" t="s">
+        <v>114</v>
+      </c>
+      <c r="E298" t="s">
+        <v>150</v>
+      </c>
+      <c r="F298" t="s">
+        <v>626</v>
+      </c>
+      <c r="G298" t="s">
+        <v>114</v>
+      </c>
+      <c r="H298" t="s">
+        <v>212</v>
+      </c>
+      <c r="I298" t="s">
+        <v>626</v>
+      </c>
+      <c r="J298" t="s">
+        <v>114</v>
+      </c>
+      <c r="K298" t="s">
+        <v>213</v>
+      </c>
+      <c r="L298" t="s">
+        <v>626</v>
+      </c>
+      <c r="M298" t="s">
+        <v>114</v>
+      </c>
+      <c r="N298" t="s">
+        <v>104</v>
+      </c>
+      <c r="O298" t="s">
+        <v>626</v>
+      </c>
+      <c r="P298" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q298" t="s">
+        <v>106</v>
+      </c>
+      <c r="R298" t="s">
+        <v>626</v>
+      </c>
+      <c r="S298" t="s">
+        <v>126</v>
+      </c>
+      <c r="T298" t="s">
+        <v>92</v>
+      </c>
+      <c r="U298" t="s">
+        <v>626</v>
+      </c>
+      <c r="V298" t="s">
+        <v>126</v>
+      </c>
+      <c r="W298" t="s">
         <v>859</v>
       </c>
-      <c r="B298" t="s">
-        <v>159</v>
-      </c>
-      <c r="C298" t="s">
-        <v>306</v>
-      </c>
-      <c r="D298" t="s">
-        <v>298</v>
-      </c>
-      <c r="E298" t="s">
-        <v>307</v>
-      </c>
-      <c r="F298" t="s">
-        <v>306</v>
-      </c>
-      <c r="G298" t="s">
-        <v>298</v>
-      </c>
-      <c r="H298" t="s">
-        <v>308</v>
-      </c>
-      <c r="I298" t="s">
-        <v>306</v>
-      </c>
-      <c r="J298" t="s">
-        <v>298</v>
-      </c>
-      <c r="K298" t="s">
+      <c r="X298" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y298" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z298" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA298" t="s">
+        <v>626</v>
+      </c>
+      <c r="AB298" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC298" t="s">
         <v>120</v>
       </c>
-      <c r="L298" t="s">
-        <v>306</v>
-      </c>
-      <c r="M298" t="s">
-        <v>298</v>
+      <c r="AD298" t="s">
+        <v>626</v>
+      </c>
+      <c r="AE298" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF298" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG298" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH298" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI298" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ298" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK298" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL298" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM298" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN298" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO298" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP298" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ298" t="s">
+        <v>126</v>
+      </c>
+      <c r="AR298" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS298" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT298" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU298" t="s">
+        <v>166</v>
+      </c>
+      <c r="AV298" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW298" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="299">
@@ -24875,16 +24875,16 @@
         <v>88</v>
       </c>
       <c r="C300" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D300" t="s">
         <v>100</v>
       </c>
       <c r="E300" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F300" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G300" t="s">
         <v>100</v>
@@ -24893,25 +24893,25 @@
         <v>92</v>
       </c>
       <c r="I300" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J300" t="s">
         <v>118</v>
       </c>
       <c r="K300" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L300" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M300" t="s">
         <v>118</v>
       </c>
       <c r="N300" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O300" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P300" t="s">
         <v>110</v>
@@ -24920,7 +24920,7 @@
         <v>283</v>
       </c>
       <c r="R300" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="S300" t="s">
         <v>110</v>
@@ -25339,49 +25339,58 @@
         <v>873</v>
       </c>
       <c r="B307" t="s">
-        <v>521</v>
+        <v>88</v>
       </c>
       <c r="C307" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="D307" t="s">
-        <v>271</v>
+        <v>124</v>
       </c>
       <c r="E307" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="F307" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="G307" t="s">
-        <v>271</v>
+        <v>124</v>
       </c>
       <c r="H307" t="s">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="I307" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="J307" t="s">
-        <v>271</v>
+        <v>124</v>
       </c>
       <c r="K307" t="s">
-        <v>165</v>
+        <v>92</v>
       </c>
       <c r="L307" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="M307" t="s">
-        <v>271</v>
+        <v>168</v>
       </c>
       <c r="N307" t="s">
+        <v>216</v>
+      </c>
+      <c r="O307" t="s">
+        <v>89</v>
+      </c>
+      <c r="P307" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q307" t="s">
         <v>120</v>
       </c>
-      <c r="O307" t="s">
-        <v>63</v>
-      </c>
-      <c r="P307" t="s">
-        <v>271</v>
+      <c r="R307" t="s">
+        <v>89</v>
+      </c>
+      <c r="S307" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="308">
@@ -25389,58 +25398,112 @@
         <v>874</v>
       </c>
       <c r="B308" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="C308" t="s">
-        <v>89</v>
+        <v>271</v>
       </c>
       <c r="D308" t="s">
         <v>124</v>
       </c>
       <c r="E308" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="F308" t="s">
-        <v>89</v>
+        <v>271</v>
       </c>
       <c r="G308" t="s">
         <v>124</v>
       </c>
       <c r="H308" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="I308" t="s">
-        <v>89</v>
+        <v>271</v>
       </c>
       <c r="J308" t="s">
         <v>124</v>
       </c>
       <c r="K308" t="s">
-        <v>92</v>
+        <v>583</v>
       </c>
       <c r="L308" t="s">
-        <v>89</v>
+        <v>271</v>
       </c>
       <c r="M308" t="s">
-        <v>168</v>
+        <v>103</v>
       </c>
       <c r="N308" t="s">
-        <v>216</v>
+        <v>584</v>
       </c>
       <c r="O308" t="s">
-        <v>89</v>
+        <v>271</v>
       </c>
       <c r="P308" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="Q308" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="R308" t="s">
-        <v>89</v>
+        <v>271</v>
       </c>
       <c r="S308" t="s">
-        <v>110</v>
+        <v>103</v>
+      </c>
+      <c r="T308" t="s">
+        <v>127</v>
+      </c>
+      <c r="U308" t="s">
+        <v>271</v>
+      </c>
+      <c r="V308" t="s">
+        <v>103</v>
+      </c>
+      <c r="W308" t="s">
+        <v>102</v>
+      </c>
+      <c r="X308" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y308" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z308" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA308" t="s">
+        <v>271</v>
+      </c>
+      <c r="AB308" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC308" t="s">
+        <v>585</v>
+      </c>
+      <c r="AD308" t="s">
+        <v>271</v>
+      </c>
+      <c r="AE308" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF308" t="s">
+        <v>267</v>
+      </c>
+      <c r="AG308" t="s">
+        <v>271</v>
+      </c>
+      <c r="AH308" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI308" t="s">
+        <v>268</v>
+      </c>
+      <c r="AJ308" t="s">
+        <v>271</v>
+      </c>
+      <c r="AK308" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="309">
@@ -25448,112 +25511,49 @@
         <v>875</v>
       </c>
       <c r="B309" t="s">
-        <v>123</v>
+        <v>533</v>
       </c>
       <c r="C309" t="s">
-        <v>271</v>
+        <v>63</v>
       </c>
       <c r="D309" t="s">
-        <v>124</v>
+        <v>271</v>
       </c>
       <c r="E309" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="F309" t="s">
-        <v>271</v>
+        <v>63</v>
       </c>
       <c r="G309" t="s">
-        <v>124</v>
+        <v>271</v>
       </c>
       <c r="H309" t="s">
-        <v>236</v>
+        <v>109</v>
       </c>
       <c r="I309" t="s">
-        <v>271</v>
+        <v>63</v>
       </c>
       <c r="J309" t="s">
-        <v>124</v>
+        <v>271</v>
       </c>
       <c r="K309" t="s">
-        <v>583</v>
+        <v>165</v>
       </c>
       <c r="L309" t="s">
-        <v>271</v>
+        <v>63</v>
       </c>
       <c r="M309" t="s">
-        <v>103</v>
+        <v>271</v>
       </c>
       <c r="N309" t="s">
-        <v>584</v>
+        <v>120</v>
       </c>
       <c r="O309" t="s">
-        <v>271</v>
+        <v>63</v>
       </c>
       <c r="P309" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q309" t="s">
-        <v>125</v>
-      </c>
-      <c r="R309" t="s">
-        <v>271</v>
-      </c>
-      <c r="S309" t="s">
-        <v>103</v>
-      </c>
-      <c r="T309" t="s">
-        <v>127</v>
-      </c>
-      <c r="U309" t="s">
-        <v>271</v>
-      </c>
-      <c r="V309" t="s">
-        <v>103</v>
-      </c>
-      <c r="W309" t="s">
-        <v>102</v>
-      </c>
-      <c r="X309" t="s">
-        <v>271</v>
-      </c>
-      <c r="Y309" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z309" t="s">
-        <v>266</v>
-      </c>
-      <c r="AA309" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB309" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC309" t="s">
-        <v>585</v>
-      </c>
-      <c r="AD309" t="s">
-        <v>271</v>
-      </c>
-      <c r="AE309" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF309" t="s">
-        <v>267</v>
-      </c>
-      <c r="AG309" t="s">
-        <v>271</v>
-      </c>
-      <c r="AH309" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI309" t="s">
-        <v>268</v>
-      </c>
-      <c r="AJ309" t="s">
-        <v>271</v>
-      </c>
-      <c r="AK309" t="s">
-        <v>82</v>
+        <v>271</v>
       </c>
     </row>
     <row r="310">
@@ -25744,7 +25744,7 @@
         <v>306</v>
       </c>
       <c r="D313" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E313" t="s">
         <v>307</v>
@@ -25753,7 +25753,7 @@
         <v>306</v>
       </c>
       <c r="G313" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H313" t="s">
         <v>308</v>
@@ -25762,7 +25762,7 @@
         <v>306</v>
       </c>
       <c r="J313" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K313" t="s">
         <v>120</v>
@@ -25771,7 +25771,7 @@
         <v>306</v>
       </c>
       <c r="M313" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="314">
@@ -26019,162 +26019,162 @@
         <v>895</v>
       </c>
       <c r="B317" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C317" t="s">
-        <v>273</v>
+        <v>89</v>
       </c>
       <c r="D317" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="E317" t="s">
-        <v>219</v>
+        <v>92</v>
       </c>
       <c r="F317" t="s">
-        <v>273</v>
+        <v>89</v>
       </c>
       <c r="G317" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H317" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="I317" t="s">
-        <v>273</v>
+        <v>89</v>
       </c>
       <c r="J317" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K317" t="s">
-        <v>309</v>
+        <v>428</v>
       </c>
       <c r="L317" t="s">
-        <v>273</v>
+        <v>89</v>
       </c>
       <c r="M317" t="s">
         <v>126</v>
       </c>
       <c r="N317" t="s">
-        <v>125</v>
+        <v>323</v>
       </c>
       <c r="O317" t="s">
-        <v>273</v>
+        <v>89</v>
       </c>
       <c r="P317" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="Q317" t="s">
-        <v>421</v>
+        <v>370</v>
       </c>
       <c r="R317" t="s">
-        <v>273</v>
+        <v>89</v>
       </c>
       <c r="S317" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="T317" t="s">
-        <v>896</v>
+        <v>393</v>
       </c>
       <c r="U317" t="s">
-        <v>273</v>
+        <v>89</v>
       </c>
       <c r="V317" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="W317" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="X317" t="s">
-        <v>273</v>
+        <v>89</v>
       </c>
       <c r="Y317" t="s">
-        <v>110</v>
+        <v>135</v>
+      </c>
+      <c r="Z317" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA317" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB317" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B318" t="s">
+        <v>98</v>
+      </c>
+      <c r="C318" t="s">
+        <v>273</v>
+      </c>
+      <c r="D318" t="s">
+        <v>124</v>
+      </c>
+      <c r="E318" t="s">
+        <v>219</v>
+      </c>
+      <c r="F318" t="s">
+        <v>273</v>
+      </c>
+      <c r="G318" t="s">
+        <v>124</v>
+      </c>
+      <c r="H318" t="s">
         <v>88</v>
       </c>
-      <c r="C318" t="s">
-        <v>89</v>
-      </c>
-      <c r="D318" t="s">
-        <v>162</v>
-      </c>
-      <c r="E318" t="s">
-        <v>92</v>
-      </c>
-      <c r="F318" t="s">
-        <v>89</v>
-      </c>
-      <c r="G318" t="s">
-        <v>126</v>
-      </c>
-      <c r="H318" t="s">
-        <v>94</v>
-      </c>
       <c r="I318" t="s">
-        <v>89</v>
+        <v>273</v>
       </c>
       <c r="J318" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K318" t="s">
-        <v>428</v>
+        <v>309</v>
       </c>
       <c r="L318" t="s">
-        <v>89</v>
+        <v>273</v>
       </c>
       <c r="M318" t="s">
         <v>126</v>
       </c>
       <c r="N318" t="s">
-        <v>323</v>
+        <v>125</v>
       </c>
       <c r="O318" t="s">
-        <v>89</v>
+        <v>273</v>
       </c>
       <c r="P318" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q318" t="s">
+        <v>421</v>
+      </c>
+      <c r="R318" t="s">
+        <v>273</v>
+      </c>
+      <c r="S318" t="s">
+        <v>126</v>
+      </c>
+      <c r="T318" t="s">
+        <v>897</v>
+      </c>
+      <c r="U318" t="s">
+        <v>273</v>
+      </c>
+      <c r="V318" t="s">
         <v>110</v>
       </c>
-      <c r="Q318" t="s">
-        <v>370</v>
-      </c>
-      <c r="R318" t="s">
-        <v>89</v>
-      </c>
-      <c r="S318" t="s">
+      <c r="W318" t="s">
+        <v>120</v>
+      </c>
+      <c r="X318" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y318" t="s">
         <v>110</v>
-      </c>
-      <c r="T318" t="s">
-        <v>393</v>
-      </c>
-      <c r="U318" t="s">
-        <v>89</v>
-      </c>
-      <c r="V318" t="s">
-        <v>135</v>
-      </c>
-      <c r="W318" t="s">
-        <v>91</v>
-      </c>
-      <c r="X318" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y318" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z318" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA318" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB318" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="319">
@@ -26277,67 +26277,40 @@
         <v>899</v>
       </c>
       <c r="B320" t="s">
-        <v>213</v>
+        <v>829</v>
       </c>
       <c r="C320" t="s">
-        <v>89</v>
+        <v>271</v>
       </c>
       <c r="D320" t="s">
-        <v>114</v>
+        <v>297</v>
       </c>
       <c r="E320" t="s">
-        <v>237</v>
+        <v>830</v>
       </c>
       <c r="F320" t="s">
-        <v>89</v>
+        <v>271</v>
       </c>
       <c r="G320" t="s">
-        <v>114</v>
+        <v>297</v>
       </c>
       <c r="H320" t="s">
-        <v>205</v>
+        <v>831</v>
       </c>
       <c r="I320" t="s">
-        <v>89</v>
+        <v>271</v>
       </c>
       <c r="J320" t="s">
-        <v>114</v>
+        <v>297</v>
       </c>
       <c r="K320" t="s">
-        <v>88</v>
+        <v>832</v>
       </c>
       <c r="L320" t="s">
-        <v>89</v>
+        <v>271</v>
       </c>
       <c r="M320" t="s">
-        <v>114</v>
-      </c>
-      <c r="N320" t="s">
-        <v>315</v>
-      </c>
-      <c r="O320" t="s">
-        <v>89</v>
-      </c>
-      <c r="P320" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q320" t="s">
-        <v>92</v>
-      </c>
-      <c r="R320" t="s">
-        <v>89</v>
-      </c>
-      <c r="S320" t="s">
-        <v>118</v>
-      </c>
-      <c r="T320" t="s">
-        <v>120</v>
-      </c>
-      <c r="U320" t="s">
-        <v>89</v>
-      </c>
-      <c r="V320" t="s">
-        <v>121</v>
+        <v>297</v>
       </c>
     </row>
     <row r="321">
@@ -26345,40 +26318,67 @@
         <v>900</v>
       </c>
       <c r="B321" t="s">
-        <v>829</v>
+        <v>213</v>
       </c>
       <c r="C321" t="s">
-        <v>271</v>
+        <v>89</v>
       </c>
       <c r="D321" t="s">
-        <v>298</v>
+        <v>114</v>
       </c>
       <c r="E321" t="s">
-        <v>830</v>
+        <v>237</v>
       </c>
       <c r="F321" t="s">
-        <v>271</v>
+        <v>89</v>
       </c>
       <c r="G321" t="s">
-        <v>298</v>
+        <v>114</v>
       </c>
       <c r="H321" t="s">
-        <v>831</v>
+        <v>205</v>
       </c>
       <c r="I321" t="s">
-        <v>271</v>
+        <v>89</v>
       </c>
       <c r="J321" t="s">
-        <v>298</v>
+        <v>114</v>
       </c>
       <c r="K321" t="s">
-        <v>832</v>
+        <v>88</v>
       </c>
       <c r="L321" t="s">
-        <v>271</v>
+        <v>89</v>
       </c>
       <c r="M321" t="s">
-        <v>298</v>
+        <v>114</v>
+      </c>
+      <c r="N321" t="s">
+        <v>315</v>
+      </c>
+      <c r="O321" t="s">
+        <v>89</v>
+      </c>
+      <c r="P321" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q321" t="s">
+        <v>92</v>
+      </c>
+      <c r="R321" t="s">
+        <v>89</v>
+      </c>
+      <c r="S321" t="s">
+        <v>118</v>
+      </c>
+      <c r="T321" t="s">
+        <v>120</v>
+      </c>
+      <c r="U321" t="s">
+        <v>89</v>
+      </c>
+      <c r="V321" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="322">
@@ -26469,7 +26469,7 @@
         <v>89</v>
       </c>
       <c r="D323" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E323" t="s">
         <v>92</v>
@@ -26490,7 +26490,7 @@
         <v>93</v>
       </c>
       <c r="K323" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L323" t="s">
         <v>89</v>
@@ -26590,67 +26590,94 @@
         <v>904</v>
       </c>
       <c r="B325" t="s">
-        <v>553</v>
+        <v>88</v>
       </c>
       <c r="C325" t="s">
         <v>89</v>
       </c>
       <c r="D325" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E325" t="s">
-        <v>554</v>
+        <v>150</v>
       </c>
       <c r="F325" t="s">
         <v>89</v>
       </c>
       <c r="G325" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H325" t="s">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="I325" t="s">
         <v>89</v>
       </c>
       <c r="J325" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="K325" t="s">
+        <v>213</v>
+      </c>
+      <c r="L325" t="s">
+        <v>89</v>
+      </c>
+      <c r="M325" t="s">
+        <v>114</v>
+      </c>
+      <c r="N325" t="s">
+        <v>214</v>
+      </c>
+      <c r="O325" t="s">
+        <v>89</v>
+      </c>
+      <c r="P325" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q325" t="s">
+        <v>104</v>
+      </c>
+      <c r="R325" t="s">
+        <v>89</v>
+      </c>
+      <c r="S325" t="s">
+        <v>215</v>
+      </c>
+      <c r="T325" t="s">
+        <v>106</v>
+      </c>
+      <c r="U325" t="s">
+        <v>89</v>
+      </c>
+      <c r="V325" t="s">
+        <v>215</v>
+      </c>
+      <c r="W325" t="s">
         <v>92</v>
       </c>
-      <c r="L325" t="s">
-        <v>89</v>
-      </c>
-      <c r="M325" t="s">
-        <v>168</v>
-      </c>
-      <c r="N325" t="s">
-        <v>555</v>
-      </c>
-      <c r="O325" t="s">
-        <v>89</v>
-      </c>
-      <c r="P325" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q325" t="s">
-        <v>556</v>
-      </c>
-      <c r="R325" t="s">
-        <v>89</v>
-      </c>
-      <c r="S325" t="s">
-        <v>82</v>
-      </c>
-      <c r="T325" t="s">
+      <c r="X325" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y325" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z325" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA325" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB325" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC325" t="s">
         <v>120</v>
       </c>
-      <c r="U325" t="s">
-        <v>89</v>
-      </c>
-      <c r="V325" t="s">
-        <v>82</v>
+      <c r="AD325" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE325" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="326">
@@ -26658,94 +26685,67 @@
         <v>905</v>
       </c>
       <c r="B326" t="s">
+        <v>553</v>
+      </c>
+      <c r="C326" t="s">
+        <v>89</v>
+      </c>
+      <c r="D326" t="s">
+        <v>124</v>
+      </c>
+      <c r="E326" t="s">
+        <v>554</v>
+      </c>
+      <c r="F326" t="s">
+        <v>89</v>
+      </c>
+      <c r="G326" t="s">
+        <v>124</v>
+      </c>
+      <c r="H326" t="s">
         <v>88</v>
       </c>
-      <c r="C326" t="s">
-        <v>89</v>
-      </c>
-      <c r="D326" t="s">
-        <v>114</v>
-      </c>
-      <c r="E326" t="s">
-        <v>150</v>
-      </c>
-      <c r="F326" t="s">
-        <v>89</v>
-      </c>
-      <c r="G326" t="s">
-        <v>114</v>
-      </c>
-      <c r="H326" t="s">
-        <v>212</v>
-      </c>
       <c r="I326" t="s">
         <v>89</v>
       </c>
       <c r="J326" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K326" t="s">
-        <v>213</v>
+        <v>92</v>
       </c>
       <c r="L326" t="s">
         <v>89</v>
       </c>
       <c r="M326" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="N326" t="s">
-        <v>214</v>
+        <v>555</v>
       </c>
       <c r="O326" t="s">
         <v>89</v>
       </c>
       <c r="P326" t="s">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="Q326" t="s">
-        <v>104</v>
+        <v>556</v>
       </c>
       <c r="R326" t="s">
         <v>89</v>
       </c>
       <c r="S326" t="s">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="T326" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="U326" t="s">
         <v>89</v>
       </c>
       <c r="V326" t="s">
-        <v>215</v>
-      </c>
-      <c r="W326" t="s">
-        <v>92</v>
-      </c>
-      <c r="X326" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y326" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z326" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA326" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB326" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC326" t="s">
-        <v>120</v>
-      </c>
-      <c r="AD326" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE326" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
     </row>
     <row r="327">
@@ -26771,7 +26771,7 @@
         <v>114</v>
       </c>
       <c r="H327" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I327" t="s">
         <v>89</v>
@@ -27120,180 +27120,180 @@
         <v>916</v>
       </c>
       <c r="B332" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="C332" t="s">
-        <v>89</v>
+        <v>271</v>
       </c>
       <c r="D332" t="s">
-        <v>124</v>
+        <v>513</v>
       </c>
       <c r="E332" t="s">
-        <v>113</v>
+        <v>917</v>
       </c>
       <c r="F332" t="s">
-        <v>89</v>
+        <v>271</v>
       </c>
       <c r="G332" t="s">
-        <v>124</v>
+        <v>513</v>
       </c>
       <c r="H332" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="I332" t="s">
-        <v>89</v>
+        <v>271</v>
       </c>
       <c r="J332" t="s">
-        <v>124</v>
-      </c>
-      <c r="K332" t="s">
-        <v>125</v>
-      </c>
-      <c r="L332" t="s">
-        <v>89</v>
-      </c>
-      <c r="M332" t="s">
-        <v>126</v>
-      </c>
-      <c r="N332" t="s">
-        <v>127</v>
-      </c>
-      <c r="O332" t="s">
-        <v>89</v>
-      </c>
-      <c r="P332" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q332" t="s">
-        <v>92</v>
-      </c>
-      <c r="R332" t="s">
-        <v>89</v>
-      </c>
-      <c r="S332" t="s">
-        <v>126</v>
-      </c>
-      <c r="T332" t="s">
-        <v>128</v>
-      </c>
-      <c r="U332" t="s">
-        <v>89</v>
-      </c>
-      <c r="V332" t="s">
-        <v>110</v>
-      </c>
-      <c r="W332" t="s">
-        <v>120</v>
-      </c>
-      <c r="X332" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y332" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z332" t="s">
-        <v>236</v>
-      </c>
-      <c r="AA332" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB332" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC332" t="s">
-        <v>583</v>
-      </c>
-      <c r="AD332" t="s">
-        <v>273</v>
-      </c>
-      <c r="AE332" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF332" t="s">
-        <v>584</v>
-      </c>
-      <c r="AG332" t="s">
-        <v>273</v>
-      </c>
-      <c r="AH332" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI332" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ332" t="s">
-        <v>273</v>
-      </c>
-      <c r="AK332" t="s">
-        <v>103</v>
-      </c>
-      <c r="AL332" t="s">
-        <v>266</v>
-      </c>
-      <c r="AM332" t="s">
-        <v>273</v>
-      </c>
-      <c r="AN332" t="s">
-        <v>103</v>
-      </c>
-      <c r="AO332" t="s">
-        <v>585</v>
-      </c>
-      <c r="AP332" t="s">
-        <v>273</v>
-      </c>
-      <c r="AQ332" t="s">
-        <v>82</v>
-      </c>
-      <c r="AR332" t="s">
-        <v>267</v>
-      </c>
-      <c r="AS332" t="s">
-        <v>273</v>
-      </c>
-      <c r="AT332" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU332" t="s">
-        <v>268</v>
-      </c>
-      <c r="AV332" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW332" t="s">
-        <v>82</v>
+        <v>225</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B333" t="s">
+        <v>123</v>
+      </c>
+      <c r="C333" t="s">
+        <v>89</v>
+      </c>
+      <c r="D333" t="s">
+        <v>124</v>
+      </c>
+      <c r="E333" t="s">
+        <v>113</v>
+      </c>
+      <c r="F333" t="s">
+        <v>89</v>
+      </c>
+      <c r="G333" t="s">
+        <v>124</v>
+      </c>
+      <c r="H333" t="s">
+        <v>88</v>
+      </c>
+      <c r="I333" t="s">
+        <v>89</v>
+      </c>
+      <c r="J333" t="s">
+        <v>124</v>
+      </c>
+      <c r="K333" t="s">
+        <v>125</v>
+      </c>
+      <c r="L333" t="s">
+        <v>89</v>
+      </c>
+      <c r="M333" t="s">
+        <v>126</v>
+      </c>
+      <c r="N333" t="s">
+        <v>127</v>
+      </c>
+      <c r="O333" t="s">
+        <v>89</v>
+      </c>
+      <c r="P333" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q333" t="s">
         <v>92</v>
       </c>
-      <c r="C333" t="s">
-        <v>271</v>
-      </c>
-      <c r="D333" t="s">
-        <v>513</v>
-      </c>
-      <c r="E333" t="s">
-        <v>918</v>
-      </c>
-      <c r="F333" t="s">
-        <v>271</v>
-      </c>
-      <c r="G333" t="s">
-        <v>513</v>
-      </c>
-      <c r="H333" t="s">
+      <c r="R333" t="s">
+        <v>89</v>
+      </c>
+      <c r="S333" t="s">
+        <v>126</v>
+      </c>
+      <c r="T333" t="s">
+        <v>128</v>
+      </c>
+      <c r="U333" t="s">
+        <v>89</v>
+      </c>
+      <c r="V333" t="s">
+        <v>110</v>
+      </c>
+      <c r="W333" t="s">
         <v>120</v>
       </c>
-      <c r="I333" t="s">
-        <v>271</v>
-      </c>
-      <c r="J333" t="s">
-        <v>225</v>
+      <c r="X333" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y333" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z333" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA333" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB333" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC333" t="s">
+        <v>583</v>
+      </c>
+      <c r="AD333" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE333" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF333" t="s">
+        <v>584</v>
+      </c>
+      <c r="AG333" t="s">
+        <v>273</v>
+      </c>
+      <c r="AH333" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI333" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ333" t="s">
+        <v>273</v>
+      </c>
+      <c r="AK333" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL333" t="s">
+        <v>266</v>
+      </c>
+      <c r="AM333" t="s">
+        <v>273</v>
+      </c>
+      <c r="AN333" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO333" t="s">
+        <v>585</v>
+      </c>
+      <c r="AP333" t="s">
+        <v>273</v>
+      </c>
+      <c r="AQ333" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR333" t="s">
+        <v>267</v>
+      </c>
+      <c r="AS333" t="s">
+        <v>273</v>
+      </c>
+      <c r="AT333" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU333" t="s">
+        <v>268</v>
+      </c>
+      <c r="AV333" t="s">
+        <v>273</v>
+      </c>
+      <c r="AW333" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="334">
@@ -27301,67 +27301,40 @@
         <v>919</v>
       </c>
       <c r="B334" t="s">
-        <v>88</v>
+        <v>920</v>
       </c>
       <c r="C334" t="s">
-        <v>89</v>
+        <v>271</v>
       </c>
       <c r="D334" t="s">
-        <v>100</v>
+        <v>297</v>
       </c>
       <c r="E334" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="F334" t="s">
-        <v>89</v>
+        <v>271</v>
       </c>
       <c r="G334" t="s">
-        <v>100</v>
+        <v>297</v>
       </c>
       <c r="H334" t="s">
-        <v>92</v>
+        <v>922</v>
       </c>
       <c r="I334" t="s">
-        <v>89</v>
+        <v>271</v>
       </c>
       <c r="J334" t="s">
-        <v>126</v>
+        <v>297</v>
       </c>
       <c r="K334" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="L334" t="s">
-        <v>89</v>
+        <v>271</v>
       </c>
       <c r="M334" t="s">
-        <v>126</v>
-      </c>
-      <c r="N334" t="s">
-        <v>922</v>
-      </c>
-      <c r="O334" t="s">
-        <v>89</v>
-      </c>
-      <c r="P334" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q334" t="s">
-        <v>589</v>
-      </c>
-      <c r="R334" t="s">
-        <v>89</v>
-      </c>
-      <c r="S334" t="s">
-        <v>110</v>
-      </c>
-      <c r="T334" t="s">
-        <v>923</v>
-      </c>
-      <c r="U334" t="s">
-        <v>89</v>
-      </c>
-      <c r="V334" t="s">
-        <v>110</v>
+        <v>297</v>
       </c>
     </row>
     <row r="335">
@@ -27369,40 +27342,67 @@
         <v>924</v>
       </c>
       <c r="B335" t="s">
+        <v>88</v>
+      </c>
+      <c r="C335" t="s">
+        <v>89</v>
+      </c>
+      <c r="D335" t="s">
+        <v>100</v>
+      </c>
+      <c r="E335" t="s">
         <v>925</v>
       </c>
-      <c r="C335" t="s">
-        <v>271</v>
-      </c>
-      <c r="D335" t="s">
-        <v>298</v>
-      </c>
-      <c r="E335" t="s">
+      <c r="F335" t="s">
+        <v>89</v>
+      </c>
+      <c r="G335" t="s">
+        <v>100</v>
+      </c>
+      <c r="H335" t="s">
+        <v>92</v>
+      </c>
+      <c r="I335" t="s">
+        <v>89</v>
+      </c>
+      <c r="J335" t="s">
+        <v>126</v>
+      </c>
+      <c r="K335" t="s">
         <v>926</v>
       </c>
-      <c r="F335" t="s">
-        <v>271</v>
-      </c>
-      <c r="G335" t="s">
-        <v>298</v>
-      </c>
-      <c r="H335" t="s">
+      <c r="L335" t="s">
+        <v>89</v>
+      </c>
+      <c r="M335" t="s">
+        <v>126</v>
+      </c>
+      <c r="N335" t="s">
         <v>927</v>
       </c>
-      <c r="I335" t="s">
-        <v>271</v>
-      </c>
-      <c r="J335" t="s">
-        <v>298</v>
-      </c>
-      <c r="K335" t="s">
+      <c r="O335" t="s">
+        <v>89</v>
+      </c>
+      <c r="P335" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q335" t="s">
+        <v>589</v>
+      </c>
+      <c r="R335" t="s">
+        <v>89</v>
+      </c>
+      <c r="S335" t="s">
+        <v>110</v>
+      </c>
+      <c r="T335" t="s">
         <v>928</v>
       </c>
-      <c r="L335" t="s">
-        <v>271</v>
-      </c>
-      <c r="M335" t="s">
-        <v>298</v>
+      <c r="U335" t="s">
+        <v>89</v>
+      </c>
+      <c r="V335" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="336">
@@ -28013,7 +28013,7 @@
         <v>938</v>
       </c>
       <c r="B345" t="s">
-        <v>236</v>
+        <v>450</v>
       </c>
       <c r="C345" t="s">
         <v>89</v>
@@ -28022,7 +28022,7 @@
         <v>124</v>
       </c>
       <c r="E345" t="s">
-        <v>293</v>
+        <v>220</v>
       </c>
       <c r="F345" t="s">
         <v>89</v>
@@ -28031,7 +28031,7 @@
         <v>124</v>
       </c>
       <c r="H345" t="s">
-        <v>88</v>
+        <v>443</v>
       </c>
       <c r="I345" t="s">
         <v>89</v>
@@ -28040,7 +28040,7 @@
         <v>124</v>
       </c>
       <c r="K345" t="s">
-        <v>102</v>
+        <v>451</v>
       </c>
       <c r="L345" t="s">
         <v>89</v>
@@ -28049,7 +28049,7 @@
         <v>118</v>
       </c>
       <c r="N345" t="s">
-        <v>294</v>
+        <v>92</v>
       </c>
       <c r="O345" t="s">
         <v>89</v>
@@ -28058,7 +28058,7 @@
         <v>118</v>
       </c>
       <c r="Q345" t="s">
-        <v>109</v>
+        <v>452</v>
       </c>
       <c r="R345" t="s">
         <v>89</v>
@@ -28067,7 +28067,7 @@
         <v>82</v>
       </c>
       <c r="T345" t="s">
-        <v>295</v>
+        <v>453</v>
       </c>
       <c r="U345" t="s">
         <v>89</v>
@@ -28076,7 +28076,7 @@
         <v>82</v>
       </c>
       <c r="W345" t="s">
-        <v>120</v>
+        <v>454</v>
       </c>
       <c r="X345" t="s">
         <v>89</v>
@@ -28090,7 +28090,7 @@
         <v>939</v>
       </c>
       <c r="B346" t="s">
-        <v>450</v>
+        <v>236</v>
       </c>
       <c r="C346" t="s">
         <v>89</v>
@@ -28099,7 +28099,7 @@
         <v>124</v>
       </c>
       <c r="E346" t="s">
-        <v>220</v>
+        <v>293</v>
       </c>
       <c r="F346" t="s">
         <v>89</v>
@@ -28108,7 +28108,7 @@
         <v>124</v>
       </c>
       <c r="H346" t="s">
-        <v>443</v>
+        <v>88</v>
       </c>
       <c r="I346" t="s">
         <v>89</v>
@@ -28117,7 +28117,7 @@
         <v>124</v>
       </c>
       <c r="K346" t="s">
-        <v>451</v>
+        <v>102</v>
       </c>
       <c r="L346" t="s">
         <v>89</v>
@@ -28126,7 +28126,7 @@
         <v>118</v>
       </c>
       <c r="N346" t="s">
-        <v>92</v>
+        <v>294</v>
       </c>
       <c r="O346" t="s">
         <v>89</v>
@@ -28135,7 +28135,7 @@
         <v>118</v>
       </c>
       <c r="Q346" t="s">
-        <v>452</v>
+        <v>109</v>
       </c>
       <c r="R346" t="s">
         <v>89</v>
@@ -28144,7 +28144,7 @@
         <v>82</v>
       </c>
       <c r="T346" t="s">
-        <v>453</v>
+        <v>295</v>
       </c>
       <c r="U346" t="s">
         <v>89</v>
@@ -28153,7 +28153,7 @@
         <v>82</v>
       </c>
       <c r="W346" t="s">
-        <v>454</v>
+        <v>120</v>
       </c>
       <c r="X346" t="s">
         <v>89</v>
@@ -28497,7 +28497,7 @@
         <v>114</v>
       </c>
       <c r="K350" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L350" t="s">
         <v>89</v>
@@ -28544,7 +28544,7 @@
         <v>306</v>
       </c>
       <c r="D351" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E351" t="s">
         <v>307</v>
@@ -28553,7 +28553,7 @@
         <v>306</v>
       </c>
       <c r="G351" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H351" t="s">
         <v>308</v>
@@ -28562,7 +28562,7 @@
         <v>306</v>
       </c>
       <c r="J351" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K351" t="s">
         <v>120</v>
@@ -28571,7 +28571,7 @@
         <v>306</v>
       </c>
       <c r="M351" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="352">
@@ -28860,180 +28860,180 @@
         <v>951</v>
       </c>
       <c r="B356" t="s">
-        <v>365</v>
+        <v>139</v>
       </c>
       <c r="C356" t="s">
         <v>63</v>
       </c>
       <c r="D356" t="s">
-        <v>90</v>
+        <v>381</v>
       </c>
       <c r="E356" t="s">
-        <v>213</v>
+        <v>577</v>
       </c>
       <c r="F356" t="s">
         <v>63</v>
       </c>
       <c r="G356" t="s">
-        <v>90</v>
+        <v>381</v>
       </c>
       <c r="H356" t="s">
-        <v>366</v>
+        <v>775</v>
       </c>
       <c r="I356" t="s">
         <v>63</v>
       </c>
       <c r="J356" t="s">
-        <v>138</v>
+        <v>381</v>
       </c>
       <c r="K356" t="s">
-        <v>367</v>
+        <v>952</v>
       </c>
       <c r="L356" t="s">
         <v>63</v>
       </c>
       <c r="M356" t="s">
-        <v>138</v>
+        <v>225</v>
       </c>
       <c r="N356" t="s">
-        <v>368</v>
+        <v>953</v>
       </c>
       <c r="O356" t="s">
         <v>63</v>
       </c>
       <c r="P356" t="s">
-        <v>138</v>
+        <v>225</v>
+      </c>
+      <c r="Q356" t="s">
+        <v>954</v>
+      </c>
+      <c r="R356" t="s">
+        <v>63</v>
+      </c>
+      <c r="S356" t="s">
+        <v>225</v>
+      </c>
+      <c r="T356" t="s">
+        <v>955</v>
+      </c>
+      <c r="U356" t="s">
+        <v>63</v>
+      </c>
+      <c r="V356" t="s">
+        <v>225</v>
+      </c>
+      <c r="W356" t="s">
+        <v>956</v>
+      </c>
+      <c r="X356" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y356" t="s">
+        <v>957</v>
+      </c>
+      <c r="Z356" t="s">
+        <v>958</v>
+      </c>
+      <c r="AA356" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB356" t="s">
+        <v>959</v>
+      </c>
+      <c r="AC356" t="s">
+        <v>960</v>
+      </c>
+      <c r="AD356" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE356" t="s">
+        <v>959</v>
+      </c>
+      <c r="AF356" t="s">
+        <v>961</v>
+      </c>
+      <c r="AG356" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH356" t="s">
+        <v>959</v>
+      </c>
+      <c r="AI356" t="s">
+        <v>962</v>
+      </c>
+      <c r="AJ356" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK356" t="s">
+        <v>959</v>
+      </c>
+      <c r="AL356" t="s">
+        <v>963</v>
+      </c>
+      <c r="AM356" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN356" t="s">
+        <v>959</v>
+      </c>
+      <c r="AO356" t="s">
+        <v>964</v>
+      </c>
+      <c r="AP356" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ356" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>952</v>
+        <v>966</v>
       </c>
       <c r="B357" t="s">
-        <v>139</v>
+        <v>365</v>
       </c>
       <c r="C357" t="s">
         <v>63</v>
       </c>
       <c r="D357" t="s">
-        <v>381</v>
+        <v>90</v>
       </c>
       <c r="E357" t="s">
-        <v>577</v>
+        <v>213</v>
       </c>
       <c r="F357" t="s">
         <v>63</v>
       </c>
       <c r="G357" t="s">
-        <v>381</v>
+        <v>90</v>
       </c>
       <c r="H357" t="s">
-        <v>775</v>
+        <v>366</v>
       </c>
       <c r="I357" t="s">
         <v>63</v>
       </c>
       <c r="J357" t="s">
-        <v>381</v>
+        <v>138</v>
       </c>
       <c r="K357" t="s">
-        <v>953</v>
+        <v>367</v>
       </c>
       <c r="L357" t="s">
         <v>63</v>
       </c>
       <c r="M357" t="s">
-        <v>225</v>
+        <v>138</v>
       </c>
       <c r="N357" t="s">
-        <v>954</v>
+        <v>368</v>
       </c>
       <c r="O357" t="s">
         <v>63</v>
       </c>
       <c r="P357" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q357" t="s">
-        <v>955</v>
-      </c>
-      <c r="R357" t="s">
-        <v>63</v>
-      </c>
-      <c r="S357" t="s">
-        <v>225</v>
-      </c>
-      <c r="T357" t="s">
-        <v>956</v>
-      </c>
-      <c r="U357" t="s">
-        <v>63</v>
-      </c>
-      <c r="V357" t="s">
-        <v>225</v>
-      </c>
-      <c r="W357" t="s">
-        <v>957</v>
-      </c>
-      <c r="X357" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y357" t="s">
-        <v>958</v>
-      </c>
-      <c r="Z357" t="s">
-        <v>959</v>
-      </c>
-      <c r="AA357" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB357" t="s">
-        <v>960</v>
-      </c>
-      <c r="AC357" t="s">
-        <v>961</v>
-      </c>
-      <c r="AD357" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE357" t="s">
-        <v>960</v>
-      </c>
-      <c r="AF357" t="s">
-        <v>962</v>
-      </c>
-      <c r="AG357" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH357" t="s">
-        <v>960</v>
-      </c>
-      <c r="AI357" t="s">
-        <v>963</v>
-      </c>
-      <c r="AJ357" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK357" t="s">
-        <v>960</v>
-      </c>
-      <c r="AL357" t="s">
-        <v>964</v>
-      </c>
-      <c r="AM357" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN357" t="s">
-        <v>960</v>
-      </c>
-      <c r="AO357" t="s">
-        <v>965</v>
-      </c>
-      <c r="AP357" t="s">
-        <v>63</v>
-      </c>
-      <c r="AQ357" t="s">
-        <v>966</v>
+        <v>138</v>
       </c>
     </row>
     <row r="358">
@@ -29041,49 +29041,40 @@
         <v>967</v>
       </c>
       <c r="B358" t="s">
-        <v>521</v>
+        <v>205</v>
       </c>
       <c r="C358" t="s">
-        <v>626</v>
+        <v>233</v>
       </c>
       <c r="D358" t="s">
-        <v>271</v>
+        <v>100</v>
       </c>
       <c r="E358" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F358" t="s">
-        <v>626</v>
+        <v>233</v>
       </c>
       <c r="G358" t="s">
-        <v>271</v>
+        <v>100</v>
       </c>
       <c r="H358" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I358" t="s">
-        <v>626</v>
+        <v>233</v>
       </c>
       <c r="J358" t="s">
-        <v>271</v>
+        <v>168</v>
       </c>
       <c r="K358" t="s">
-        <v>165</v>
+        <v>234</v>
       </c>
       <c r="L358" t="s">
-        <v>626</v>
+        <v>233</v>
       </c>
       <c r="M358" t="s">
-        <v>271</v>
-      </c>
-      <c r="N358" t="s">
-        <v>120</v>
-      </c>
-      <c r="O358" t="s">
-        <v>626</v>
-      </c>
-      <c r="P358" t="s">
-        <v>271</v>
+        <v>121</v>
       </c>
     </row>
     <row r="359">
@@ -29091,40 +29082,49 @@
         <v>968</v>
       </c>
       <c r="B359" t="s">
-        <v>205</v>
+        <v>533</v>
       </c>
       <c r="C359" t="s">
-        <v>233</v>
+        <v>626</v>
       </c>
       <c r="D359" t="s">
-        <v>100</v>
+        <v>271</v>
       </c>
       <c r="E359" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F359" t="s">
-        <v>233</v>
+        <v>626</v>
       </c>
       <c r="G359" t="s">
-        <v>100</v>
+        <v>271</v>
       </c>
       <c r="H359" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I359" t="s">
-        <v>233</v>
+        <v>626</v>
       </c>
       <c r="J359" t="s">
-        <v>168</v>
+        <v>271</v>
       </c>
       <c r="K359" t="s">
-        <v>234</v>
+        <v>165</v>
       </c>
       <c r="L359" t="s">
-        <v>233</v>
+        <v>626</v>
       </c>
       <c r="M359" t="s">
-        <v>121</v>
+        <v>271</v>
+      </c>
+      <c r="N359" t="s">
+        <v>120</v>
+      </c>
+      <c r="O359" t="s">
+        <v>626</v>
+      </c>
+      <c r="P359" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="360">
@@ -29512,7 +29512,7 @@
         <v>977</v>
       </c>
       <c r="B364" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C364" t="s">
         <v>63</v>
@@ -29521,7 +29521,7 @@
         <v>600</v>
       </c>
       <c r="E364" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F364" t="s">
         <v>63</v>
@@ -29530,7 +29530,7 @@
         <v>978</v>
       </c>
       <c r="H364" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="I364" t="s">
         <v>63</v>
@@ -29539,7 +29539,7 @@
         <v>978</v>
       </c>
       <c r="K364" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="L364" t="s">
         <v>63</v>
@@ -29548,7 +29548,7 @@
         <v>978</v>
       </c>
       <c r="N364" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="O364" t="s">
         <v>63</v>
@@ -29557,7 +29557,7 @@
         <v>978</v>
       </c>
       <c r="Q364" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="R364" t="s">
         <v>63</v>
@@ -29566,7 +29566,7 @@
         <v>978</v>
       </c>
       <c r="T364" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="U364" t="s">
         <v>63</v>
